--- a/data/trans_orig/P29-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P29-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDEE411C-38F9-4D2B-91E2-17C732CB3F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A21897-D00F-4C9B-AD25-83FB43F8BFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3A35932C-F859-49AE-82A2-47F4E4E210D8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F702530-9F47-4EFD-B238-5653B8F12926}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="728">
   <si>
     <t>Población según si consumen algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,2161 +77,2152 @@
     <t>28,08%</t>
   </si>
   <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
   </si>
   <si>
     <t>36,62%</t>
   </si>
   <si>
-    <t>32,37%</t>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>No, menos de una vez al mes</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
   </si>
   <si>
     <t>41,16%</t>
   </si>
   <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>No, menos de una vez al mes</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
   </si>
   <si>
     <t>18,27%</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
   </si>
   <si>
     <t>37,15%</t>
   </si>
   <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
   </si>
   <si>
     <t>47,33%</t>
   </si>
   <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
+    <t>50,05%</t>
   </si>
 </sst>
 </file>
@@ -2643,7 +2634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D4EB6B-703A-4D40-93CF-F53F1D6A76B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229FBA6E-369B-45DE-A560-43392E776288}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3245,13 +3236,13 @@
         <v>142374</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>249</v>
@@ -3260,10 +3251,10 @@
         <v>252155</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>85</v>
@@ -3454,7 +3445,7 @@
         <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>109</v>
@@ -3932,10 +3923,10 @@
         <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +3994,13 @@
         <v>853552</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H28" s="7">
         <v>1720</v>
@@ -4018,13 +4009,13 @@
         <v>1786962</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>2547</v>
@@ -4033,13 +4024,13 @@
         <v>2640514</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4045,13 @@
         <v>542088</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>702</v>
@@ -4069,13 +4060,13 @@
         <v>696715</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>1243</v>
@@ -4084,13 +4075,13 @@
         <v>1238802</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4096,13 @@
         <v>1880904</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>875</v>
@@ -4120,28 +4111,28 @@
         <v>895521</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>2721</v>
       </c>
       <c r="N30" s="7">
-        <v>2776424</v>
+        <v>2776425</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,7 +4174,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -4197,7 +4188,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4219,7 +4210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A2AC8C-79BD-4E83-9859-D18CEEA67E56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176DBD67-CC2B-4626-90EF-8B4618744315}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4236,7 +4227,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4343,13 +4334,13 @@
         <v>113777</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H4" s="7">
         <v>180</v>
@@ -4358,13 +4349,13 @@
         <v>183572</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>291</v>
@@ -4373,13 +4364,13 @@
         <v>297349</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4385,13 @@
         <v>58509</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -4409,13 +4400,13 @@
         <v>62142</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M5" s="7">
         <v>118</v>
@@ -4424,13 +4415,13 @@
         <v>120651</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4436,13 @@
         <v>281860</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H6" s="7">
         <v>179</v>
@@ -4460,13 +4451,13 @@
         <v>184517</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>227</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>228</v>
+        <v>121</v>
       </c>
       <c r="M6" s="7">
         <v>458</v>
@@ -4475,13 +4466,13 @@
         <v>466377</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4540,13 @@
         <v>154249</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>277</v>
@@ -4564,13 +4555,13 @@
         <v>298700</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>425</v>
@@ -4579,13 +4570,13 @@
         <v>452949</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4591,13 @@
         <v>65042</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H9" s="7">
         <v>91</v>
@@ -4615,13 +4606,13 @@
         <v>97119</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>245</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="M9" s="7">
         <v>154</v>
@@ -4630,13 +4621,13 @@
         <v>162161</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4642,13 @@
         <v>467796</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>202</v>
@@ -4666,13 +4657,13 @@
         <v>213435</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>658</v>
@@ -4681,13 +4672,13 @@
         <v>681231</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4746,13 @@
         <v>166310</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H12" s="7">
         <v>336</v>
@@ -4770,13 +4761,13 @@
         <v>352975</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M12" s="7">
         <v>491</v>
@@ -4785,13 +4776,13 @@
         <v>519285</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4797,13 @@
         <v>86505</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>106</v>
@@ -4821,13 +4812,13 @@
         <v>112448</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>191</v>
@@ -4836,13 +4827,13 @@
         <v>198953</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,13 +4848,13 @@
         <v>429048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>225</v>
@@ -4872,13 +4863,13 @@
         <v>245427</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>636</v>
@@ -4887,13 +4878,13 @@
         <v>674474</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4952,13 @@
         <v>140226</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>286</v>
@@ -4976,13 +4967,13 @@
         <v>329877</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>409</v>
@@ -4991,13 +4982,13 @@
         <v>470103</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +5003,13 @@
         <v>80283</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -5027,13 +5018,13 @@
         <v>69807</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -5042,13 +5033,13 @@
         <v>150090</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5054,13 @@
         <v>394108</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H18" s="7">
         <v>190</v>
@@ -5078,13 +5069,13 @@
         <v>216515</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M18" s="7">
         <v>543</v>
@@ -5093,13 +5084,13 @@
         <v>610623</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5158,13 @@
         <v>126699</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -5182,13 +5173,13 @@
         <v>278839</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>370</v>
@@ -5197,13 +5188,13 @@
         <v>405538</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5209,13 @@
         <v>70940</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H21" s="7">
         <v>52</v>
@@ -5233,13 +5224,13 @@
         <v>56767</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M21" s="7">
         <v>119</v>
@@ -5248,13 +5239,13 @@
         <v>127707</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5260,13 @@
         <v>231791</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H22" s="7">
         <v>99</v>
@@ -5284,13 +5275,13 @@
         <v>112194</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>310</v>
@@ -5299,13 +5290,13 @@
         <v>343984</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5364,13 @@
         <v>242462</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H24" s="7">
         <v>544</v>
@@ -5388,13 +5379,13 @@
         <v>581657</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M24" s="7">
         <v>764</v>
@@ -5403,13 +5394,13 @@
         <v>824120</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5415,13 @@
         <v>77210</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>76</v>
@@ -5439,13 +5430,13 @@
         <v>78501</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M25" s="7">
         <v>147</v>
@@ -5454,13 +5445,13 @@
         <v>155711</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5466,13 @@
         <v>239964</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H26" s="7">
         <v>73</v>
@@ -5490,13 +5481,13 @@
         <v>81851</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M26" s="7">
         <v>286</v>
@@ -5505,13 +5496,13 @@
         <v>321815</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,10 +5570,10 @@
         <v>943722</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>364</v>
@@ -5600,7 +5591,7 @@
         <v>366</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>367</v>
+        <v>275</v>
       </c>
       <c r="M28" s="7">
         <v>2750</v>
@@ -5609,13 +5600,13 @@
         <v>2969342</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,7 +5627,7 @@
         <v>371</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="H29" s="7">
         <v>450</v>
@@ -5645,13 +5636,13 @@
         <v>476784</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M29" s="7">
         <v>864</v>
@@ -5660,13 +5651,13 @@
         <v>915273</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>377</v>
+        <v>106</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5672,13 @@
         <v>2044567</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>33</v>
+        <v>378</v>
       </c>
       <c r="H30" s="7">
         <v>968</v>
@@ -5696,13 +5687,13 @@
         <v>1053937</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M30" s="7">
         <v>2891</v>
@@ -5711,13 +5702,13 @@
         <v>3098505</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>47</v>
+        <v>382</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,7 +5764,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5795,7 +5786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A4C2C1-D96E-4A48-9190-232E92B424AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0AB8C1-C90E-4EE1-8B79-AAB95A82A262}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5812,7 +5803,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5919,13 +5910,13 @@
         <v>75399</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H4" s="7">
         <v>104</v>
@@ -5934,13 +5925,13 @@
         <v>103831</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M4" s="7">
         <v>172</v>
@@ -5949,13 +5940,13 @@
         <v>179231</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,10 +5961,10 @@
         <v>85733</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>396</v>
@@ -5988,10 +5979,10 @@
         <v>397</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>398</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M5" s="7">
         <v>204</v>
@@ -6000,13 +5991,13 @@
         <v>205162</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,13 +6012,13 @@
         <v>257236</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H6" s="7">
         <v>177</v>
@@ -6036,13 +6027,13 @@
         <v>172494</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M6" s="7">
         <v>420</v>
@@ -6051,13 +6042,13 @@
         <v>429730</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6116,13 @@
         <v>65305</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H8" s="7">
         <v>112</v>
@@ -6140,13 +6131,13 @@
         <v>110982</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M8" s="7">
         <v>173</v>
@@ -6155,13 +6146,13 @@
         <v>176286</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,13 +6167,13 @@
         <v>158604</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H9" s="7">
         <v>234</v>
@@ -6191,13 +6182,13 @@
         <v>224212</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M9" s="7">
         <v>386</v>
@@ -6206,13 +6197,13 @@
         <v>382817</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>428</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,10 +6355,10 @@
         <v>444</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6373,13 @@
         <v>164939</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="H13" s="7">
         <v>251</v>
@@ -6397,13 +6388,13 @@
         <v>246829</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="M13" s="7">
         <v>410</v>
@@ -6412,13 +6403,13 @@
         <v>411768</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>452</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,13 +6424,13 @@
         <v>432242</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="H14" s="7">
         <v>250</v>
@@ -6448,13 +6439,13 @@
         <v>250979</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>662</v>
@@ -6537,13 +6528,13 @@
         <v>75170</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>371</v>
+        <v>463</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H16" s="7">
         <v>144</v>
@@ -6552,13 +6543,13 @@
         <v>154684</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>467</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>466</v>
+        <v>26</v>
       </c>
       <c r="M16" s="7">
         <v>207</v>
@@ -6567,13 +6558,13 @@
         <v>229854</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,10 +6579,10 @@
         <v>180216</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>471</v>
+        <v>178</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>472</v>
@@ -6606,10 +6597,10 @@
         <v>473</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>383</v>
+        <v>474</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M17" s="7">
         <v>380</v>
@@ -6618,13 +6609,13 @@
         <v>406154</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,13 +6630,13 @@
         <v>390662</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H18" s="7">
         <v>243</v>
@@ -6654,13 +6645,13 @@
         <v>266253</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>16</v>
+        <v>482</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M18" s="7">
         <v>595</v>
@@ -6669,13 +6660,13 @@
         <v>656915</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6743,13 +6734,13 @@
         <v>61323</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H20" s="7">
         <v>139</v>
@@ -6758,13 +6749,13 @@
         <v>160034</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="M20" s="7">
         <v>193</v>
@@ -6773,13 +6764,13 @@
         <v>221357</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,10 +6788,10 @@
         <v>48</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H21" s="7">
         <v>178</v>
@@ -6809,13 +6800,13 @@
         <v>202618</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>385</v>
+        <v>500</v>
       </c>
       <c r="M21" s="7">
         <v>293</v>
@@ -6824,13 +6815,13 @@
         <v>331508</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,13 +6836,13 @@
         <v>286740</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H22" s="7">
         <v>114</v>
@@ -6860,13 +6851,13 @@
         <v>131875</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="M22" s="7">
         <v>368</v>
@@ -6875,13 +6866,13 @@
         <v>418615</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6949,13 +6940,13 @@
         <v>82395</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>378</v>
+        <v>512</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>510</v>
+        <v>222</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>511</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>361</v>
@@ -6964,13 +6955,13 @@
         <v>429828</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>258</v>
+        <v>513</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M24" s="7">
         <v>447</v>
@@ -6979,13 +6970,13 @@
         <v>512223</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7000,13 +6991,13 @@
         <v>235132</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H25" s="7">
         <v>208</v>
@@ -7015,13 +7006,13 @@
         <v>243926</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>306</v>
+        <v>522</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>520</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>238</v>
+        <v>523</v>
       </c>
       <c r="M25" s="7">
         <v>465</v>
@@ -7030,13 +7021,13 @@
         <v>479058</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,13 +7042,13 @@
         <v>273801</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H26" s="7">
         <v>86</v>
@@ -7066,13 +7057,13 @@
         <v>104177</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="M26" s="7">
         <v>370</v>
@@ -7081,13 +7072,13 @@
         <v>377979</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,13 +7146,13 @@
         <v>431508</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>372</v>
+        <v>538</v>
       </c>
       <c r="H28" s="7">
         <v>1023</v>
@@ -7170,13 +7161,13 @@
         <v>1121931</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="M28" s="7">
         <v>1422</v>
@@ -7185,13 +7176,13 @@
         <v>1553439</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7197,13 @@
         <v>953515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H29" s="7">
         <v>1207</v>
@@ -7221,13 +7212,13 @@
         <v>1262953</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>545</v>
+        <v>478</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="M29" s="7">
         <v>2138</v>
@@ -7236,13 +7227,13 @@
         <v>2216468</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7257,13 +7248,13 @@
         <v>2007270</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>550</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H30" s="7">
         <v>1102</v>
@@ -7272,13 +7263,13 @@
         <v>1153130</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>103</v>
+        <v>557</v>
       </c>
       <c r="M30" s="7">
         <v>3001</v>
@@ -7287,13 +7278,13 @@
         <v>3160400</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>385</v>
+        <v>558</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>555</v>
+        <v>119</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,7 +7340,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -7371,7 +7362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CBFDCC-6F06-4E08-AB95-F9A79D16ADCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC07A55-67A4-4763-8442-360D26760739}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7388,7 +7379,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7495,13 +7486,13 @@
         <v>71476</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>558</v>
+        <v>44</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H4" s="7">
         <v>64</v>
@@ -7510,13 +7501,13 @@
         <v>107578</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M4" s="7">
         <v>102</v>
@@ -7525,13 +7516,13 @@
         <v>179055</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,13 +7537,13 @@
         <v>108970</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H5" s="7">
         <v>51</v>
@@ -7561,13 +7552,13 @@
         <v>86913</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M5" s="7">
         <v>102</v>
@@ -7576,13 +7567,13 @@
         <v>195883</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7597,13 +7588,13 @@
         <v>197233</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H6" s="7">
         <v>92</v>
@@ -7612,13 +7603,13 @@
         <v>160466</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M6" s="7">
         <v>175</v>
@@ -7627,13 +7618,13 @@
         <v>357699</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,13 +7692,13 @@
         <v>63553</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H8" s="7">
         <v>107</v>
@@ -7719,10 +7710,10 @@
         <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M8" s="7">
         <v>161</v>
@@ -7731,13 +7722,13 @@
         <v>158988</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7752,13 +7743,13 @@
         <v>92048</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="H9" s="7">
         <v>149</v>
@@ -7767,13 +7758,13 @@
         <v>167427</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="M9" s="7">
         <v>214</v>
@@ -7782,13 +7773,13 @@
         <v>259475</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>598</v>
+        <v>380</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7803,13 +7794,13 @@
         <v>272795</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H10" s="7">
         <v>203</v>
@@ -7818,13 +7809,13 @@
         <v>234573</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M10" s="7">
         <v>386</v>
@@ -7833,13 +7824,13 @@
         <v>507368</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7907,13 +7898,13 @@
         <v>83795</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H12" s="7">
         <v>231</v>
@@ -7922,13 +7913,13 @@
         <v>139569</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M12" s="7">
         <v>333</v>
@@ -7937,13 +7928,13 @@
         <v>223364</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>446</v>
+        <v>617</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7958,13 +7949,13 @@
         <v>121551</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>620</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="H13" s="7">
         <v>278</v>
@@ -7973,13 +7964,13 @@
         <v>206494</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>424</v>
+        <v>623</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="M13" s="7">
         <v>393</v>
@@ -7988,13 +7979,13 @@
         <v>328046</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8009,13 +8000,13 @@
         <v>351745</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="H14" s="7">
         <v>335</v>
@@ -8024,13 +8015,13 @@
         <v>235720</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>630</v>
+        <v>130</v>
       </c>
       <c r="M14" s="7">
         <v>663</v>
@@ -8039,13 +8030,13 @@
         <v>587466</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>633</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8113,13 +8104,13 @@
         <v>97106</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H16" s="7">
         <v>320</v>
@@ -8128,13 +8119,13 @@
         <v>206775</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="M16" s="7">
         <v>438</v>
@@ -8143,13 +8134,13 @@
         <v>303881</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8164,13 +8155,13 @@
         <v>161665</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H17" s="7">
         <v>364</v>
@@ -8179,13 +8170,13 @@
         <v>244813</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="M17" s="7">
         <v>518</v>
@@ -8194,13 +8185,13 @@
         <v>406478</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8215,13 +8206,13 @@
         <v>460753</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H18" s="7">
         <v>456</v>
@@ -8230,13 +8221,13 @@
         <v>294962</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>226</v>
+        <v>659</v>
       </c>
       <c r="M18" s="7">
         <v>845</v>
@@ -8245,13 +8236,13 @@
         <v>755715</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8293,7 +8284,7 @@
         <v>1801</v>
       </c>
       <c r="N19" s="7">
-        <v>1466075</v>
+        <v>1466074</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -8319,13 +8310,13 @@
         <v>90507</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="H20" s="7">
         <v>322</v>
@@ -8334,10 +8325,10 @@
         <v>184020</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>663</v>
+        <v>502</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>664</v>
+        <v>402</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>665</v>
@@ -8370,7 +8361,7 @@
         <v>164962</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>669</v>
@@ -8385,13 +8376,13 @@
         <v>203887</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>672</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>673</v>
       </c>
       <c r="M21" s="7">
         <v>516</v>
@@ -8400,13 +8391,13 @@
         <v>368849</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>674</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8421,13 +8412,13 @@
         <v>343611</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>677</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>679</v>
       </c>
       <c r="H22" s="7">
         <v>338</v>
@@ -8436,13 +8427,13 @@
         <v>205028</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>680</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>682</v>
       </c>
       <c r="M22" s="7">
         <v>711</v>
@@ -8451,13 +8442,13 @@
         <v>548639</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8525,13 +8516,13 @@
         <v>120526</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>683</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H24" s="7">
         <v>801</v>
@@ -8540,13 +8531,13 @@
         <v>413190</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>688</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>690</v>
       </c>
       <c r="M24" s="7">
         <v>982</v>
@@ -8555,13 +8546,13 @@
         <v>533716</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>691</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8576,13 +8567,13 @@
         <v>216897</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>694</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>695</v>
+        <v>665</v>
       </c>
       <c r="H25" s="7">
         <v>602</v>
@@ -8591,13 +8582,13 @@
         <v>330518</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>522</v>
+        <v>694</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>696</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>697</v>
       </c>
       <c r="M25" s="7">
         <v>923</v>
@@ -8606,13 +8597,13 @@
         <v>547415</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8627,13 +8618,13 @@
         <v>359389</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>701</v>
+        <v>408</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H26" s="7">
         <v>301</v>
@@ -8642,28 +8633,28 @@
         <v>280015</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>703</v>
+        <v>616</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="M26" s="7">
         <v>826</v>
       </c>
       <c r="N26" s="7">
-        <v>639405</v>
+        <v>639404</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>17</v>
+        <v>704</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8705,7 +8696,7 @@
         <v>2731</v>
       </c>
       <c r="N27" s="7">
-        <v>1720536</v>
+        <v>1720535</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -8731,13 +8722,13 @@
         <v>526964</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>133</v>
+        <v>706</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>708</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>590</v>
       </c>
       <c r="H28" s="7">
         <v>1845</v>
@@ -8761,13 +8752,13 @@
         <v>1673530</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>713</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8782,13 +8773,13 @@
         <v>866093</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>715</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>717</v>
       </c>
       <c r="H29" s="7">
         <v>1783</v>
@@ -8797,13 +8788,13 @@
         <v>1240052</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
       <c r="M29" s="7">
         <v>2666</v>
@@ -8812,13 +8803,13 @@
         <v>2106145</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8833,13 +8824,13 @@
         <v>1985527</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>726</v>
+        <v>378</v>
       </c>
       <c r="H30" s="7">
         <v>1725</v>
@@ -8848,13 +8839,13 @@
         <v>1410764</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>629</v>
+        <v>723</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>680</v>
+        <v>724</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="M30" s="7">
         <v>3606</v>
@@ -8863,13 +8854,13 @@
         <v>3396291</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>729</v>
+        <v>500</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8925,7 +8916,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P29-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P29-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A21897-D00F-4C9B-AD25-83FB43F8BFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A39C3F6-FBF0-4DE2-8765-EDFD5E8E8CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F702530-9F47-4EFD-B238-5653B8F12926}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08586343-4413-497D-B5C5-0DA763C8EDDF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="730">
   <si>
     <t>Población según si consumen algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,25 @@
     <t>28,08%</t>
   </si>
   <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
   </si>
   <si>
     <t>36,62%</t>
   </si>
   <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
   </si>
   <si>
     <t>No, menos de una vez al mes</t>
@@ -107,28 +104,28 @@
     <t>15,1%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
   </si>
   <si>
     <t>23,5%</t>
   </si>
   <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
   </si>
   <si>
     <t>19,19%</t>
   </si>
   <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
   </si>
   <si>
     <t>Si</t>
@@ -137,28 +134,28 @@
     <t>56,82%</t>
   </si>
   <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
   </si>
   <si>
     <t>39,88%</t>
   </si>
   <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
   </si>
   <si>
     <t>48,58%</t>
   </si>
   <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -170,2056 +167,2065 @@
     <t>15,88%</t>
   </si>
   <si>
-    <t>13,48%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
     <t>18,93%</t>
   </si>
   <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
   </si>
   <si>
     <t>44,12%</t>
   </si>
   <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
   </si>
   <si>
     <t>61,44%</t>
   </si>
   <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
   </si>
   <si>
     <t>45,8%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
   </si>
   <si>
     <t>50,05%</t>
@@ -2634,7 +2640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229FBA6E-369B-45DE-A560-43392E776288}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B619FAB6-7E14-4233-9A28-0C7560D8CA4D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2788,19 +2794,19 @@
         <v>309938</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>77</v>
@@ -2809,13 +2815,13 @@
         <v>74602</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>119</v>
@@ -2824,13 +2830,13 @@
         <v>109883</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>196</v>
@@ -2839,19 +2845,19 @@
         <v>184485</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>283</v>
@@ -2860,13 +2866,13 @@
         <v>280713</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>196</v>
@@ -2875,13 +2881,13 @@
         <v>186417</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>479</v>
@@ -2890,13 +2896,13 @@
         <v>467130</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2917,13 @@
         <v>494064</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>489</v>
@@ -2926,13 +2932,13 @@
         <v>467489</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>988</v>
@@ -2941,18 +2947,18 @@
         <v>961553</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2964,13 +2970,13 @@
         <v>116816</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>233</v>
@@ -2979,13 +2985,13 @@
         <v>250935</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>338</v>
@@ -2994,19 +3000,19 @@
         <v>367750</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>113</v>
@@ -3015,13 +3021,13 @@
         <v>116792</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>154</v>
@@ -3030,13 +3036,13 @@
         <v>156283</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>267</v>
@@ -3045,19 +3051,19 @@
         <v>273075</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>485</v>
@@ -3066,13 +3072,13 @@
         <v>501881</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>204</v>
@@ -3081,13 +3087,13 @@
         <v>218276</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>689</v>
@@ -3096,13 +3102,13 @@
         <v>720157</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,13 +3123,13 @@
         <v>735489</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -3132,13 +3138,13 @@
         <v>625494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>1294</v>
@@ -3147,18 +3153,18 @@
         <v>1360982</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3170,13 +3176,13 @@
         <v>127096</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>300</v>
@@ -3185,13 +3191,13 @@
         <v>323100</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>412</v>
@@ -3200,19 +3206,19 @@
         <v>450196</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>108</v>
@@ -3221,13 +3227,13 @@
         <v>109781</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>141</v>
@@ -3263,7 +3269,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>393</v>
@@ -3323,13 +3329,13 @@
         <v>638668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>658</v>
@@ -3338,13 +3344,13 @@
         <v>689744</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1271</v>
@@ -3353,13 +3359,13 @@
         <v>1328412</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,7 +3424,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>75</v>
@@ -3445,10 +3451,10 @@
         <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>183</v>
@@ -3457,19 +3463,19 @@
         <v>189733</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>295</v>
@@ -3478,13 +3484,13 @@
         <v>313494</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>139</v>
@@ -3493,13 +3499,13 @@
         <v>145203</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>434</v>
@@ -3508,13 +3514,13 @@
         <v>458697</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3535,13 @@
         <v>519147</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>502</v>
@@ -3544,13 +3550,13 @@
         <v>515642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>986</v>
@@ -3559,18 +3565,18 @@
         <v>1034789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3582,13 +3588,13 @@
         <v>130986</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="H20" s="7">
         <v>238</v>
@@ -3624,7 +3630,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <v>76</v>
@@ -3675,7 +3681,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>183</v>
@@ -3735,13 +3741,13 @@
         <v>386710</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>396</v>
@@ -3750,13 +3756,13 @@
         <v>403986</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>788</v>
@@ -3765,13 +3771,13 @@
         <v>790696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,7 +3800,7 @@
         <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H24" s="7">
         <v>520</v>
@@ -3803,13 +3809,13 @@
         <v>537659</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>744</v>
@@ -3818,19 +3824,19 @@
         <v>751658</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>92</v>
@@ -3839,13 +3845,13 @@
         <v>85533</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>96</v>
@@ -3854,13 +3860,13 @@
         <v>93265</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>188</v>
@@ -3869,19 +3875,19 @@
         <v>178799</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>207</v>
@@ -3890,13 +3896,13 @@
         <v>202934</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>45</v>
@@ -3905,13 +3911,13 @@
         <v>45918</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>252</v>
@@ -3920,10 +3926,10 @@
         <v>248852</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>176</v>
@@ -3941,13 +3947,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -3956,13 +3962,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -3971,13 +3977,13 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4042,13 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>541</v>
       </c>
       <c r="D29" s="7">
-        <v>542088</v>
+        <v>542087</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>186</v>
@@ -4060,13 +4066,13 @@
         <v>696715</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>1243</v>
@@ -4075,19 +4081,19 @@
         <v>1238802</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>1846</v>
@@ -4096,13 +4102,13 @@
         <v>1880904</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>875</v>
@@ -4111,13 +4117,13 @@
         <v>895521</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>2721</v>
@@ -4126,13 +4132,13 @@
         <v>2776425</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,16 +4150,16 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>3297</v>
@@ -4162,13 +4168,13 @@
         <v>3379198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31" s="7">
         <v>6511</v>
@@ -4177,18 +4183,18 @@
         <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4210,7 +4216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176DBD67-CC2B-4626-90EF-8B4618744315}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8014E53A-D07B-4DA7-BBBD-E00477C1A14F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4227,7 +4233,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4334,13 +4340,13 @@
         <v>113777</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H4" s="7">
         <v>180</v>
@@ -4349,13 +4355,13 @@
         <v>183572</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>291</v>
@@ -4364,19 +4370,19 @@
         <v>297349</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>56</v>
@@ -4385,13 +4391,13 @@
         <v>58509</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -4400,13 +4406,13 @@
         <v>62142</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M5" s="7">
         <v>118</v>
@@ -4415,19 +4421,19 @@
         <v>120651</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>279</v>
@@ -4436,13 +4442,13 @@
         <v>281860</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H6" s="7">
         <v>179</v>
@@ -4451,13 +4457,13 @@
         <v>184517</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M6" s="7">
         <v>458</v>
@@ -4487,13 +4493,13 @@
         <v>454146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>421</v>
@@ -4502,13 +4508,13 @@
         <v>430230</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>867</v>
@@ -4517,18 +4523,18 @@
         <v>884376</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4582,7 +4588,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>63</v>
@@ -4612,7 +4618,7 @@
         <v>244</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="M9" s="7">
         <v>154</v>
@@ -4621,19 +4627,19 @@
         <v>162161</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>456</v>
@@ -4642,13 +4648,13 @@
         <v>467796</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>202</v>
@@ -4657,13 +4663,13 @@
         <v>213435</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M10" s="7">
         <v>658</v>
@@ -4672,13 +4678,13 @@
         <v>681231</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4699,13 @@
         <v>687087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>570</v>
@@ -4708,13 +4714,13 @@
         <v>609254</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>1237</v>
@@ -4723,18 +4729,18 @@
         <v>1296341</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4746,13 +4752,13 @@
         <v>166310</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H12" s="7">
         <v>336</v>
@@ -4761,13 +4767,13 @@
         <v>352975</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M12" s="7">
         <v>491</v>
@@ -4776,19 +4782,19 @@
         <v>519285</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>85</v>
@@ -4797,13 +4803,13 @@
         <v>86505</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>106</v>
@@ -4812,13 +4818,13 @@
         <v>112448</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>191</v>
@@ -4827,19 +4833,19 @@
         <v>198953</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>106</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>411</v>
@@ -4848,13 +4854,13 @@
         <v>429048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>225</v>
@@ -4863,13 +4869,13 @@
         <v>245427</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>636</v>
@@ -4878,13 +4884,13 @@
         <v>674474</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4905,13 @@
         <v>681863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>667</v>
@@ -4914,13 +4920,13 @@
         <v>710850</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1318</v>
@@ -4929,13 +4935,13 @@
         <v>1392712</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4958,13 @@
         <v>140226</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>286</v>
@@ -4967,13 +4973,13 @@
         <v>329877</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>409</v>
@@ -4982,19 +4988,19 @@
         <v>470103</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>72</v>
@@ -5003,13 +5009,13 @@
         <v>80283</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -5018,13 +5024,13 @@
         <v>69807</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -5033,19 +5039,19 @@
         <v>150090</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>353</v>
@@ -5054,13 +5060,13 @@
         <v>394108</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H18" s="7">
         <v>190</v>
@@ -5069,13 +5075,13 @@
         <v>216515</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M18" s="7">
         <v>543</v>
@@ -5084,13 +5090,13 @@
         <v>610623</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5111,13 @@
         <v>614617</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>539</v>
@@ -5120,13 +5126,13 @@
         <v>616199</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1087</v>
@@ -5135,18 +5141,18 @@
         <v>1230816</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5158,13 +5164,13 @@
         <v>126699</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -5173,13 +5179,13 @@
         <v>278839</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>370</v>
@@ -5188,19 +5194,19 @@
         <v>405538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <v>67</v>
@@ -5209,13 +5215,13 @@
         <v>70940</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>318</v>
+        <v>164</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H21" s="7">
         <v>52</v>
@@ -5224,13 +5230,13 @@
         <v>56767</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>323</v>
+        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>119</v>
@@ -5251,7 +5257,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>211</v>
@@ -5275,7 +5281,7 @@
         <v>112194</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>330</v>
@@ -5311,13 +5317,13 @@
         <v>429429</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>406</v>
@@ -5326,13 +5332,13 @@
         <v>447800</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>799</v>
@@ -5341,13 +5347,13 @@
         <v>877229</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,7 +5412,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>71</v>
@@ -5457,7 +5463,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>213</v>
@@ -5466,13 +5472,13 @@
         <v>239964</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H26" s="7">
         <v>73</v>
@@ -5481,13 +5487,13 @@
         <v>81851</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M26" s="7">
         <v>286</v>
@@ -5496,13 +5502,13 @@
         <v>321815</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>360</v>
+        <v>231</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>361</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5523,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>693</v>
@@ -5532,13 +5538,13 @@
         <v>742008</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>1197</v>
@@ -5547,13 +5553,13 @@
         <v>1301646</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5576,13 @@
         <v>943722</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H28" s="7">
         <v>1878</v>
@@ -5585,13 +5591,13 @@
         <v>2025620</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>275</v>
+        <v>363</v>
       </c>
       <c r="M28" s="7">
         <v>2750</v>
@@ -5600,19 +5606,19 @@
         <v>2969342</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>414</v>
@@ -5621,13 +5627,13 @@
         <v>438489</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="H29" s="7">
         <v>450</v>
@@ -5636,13 +5642,13 @@
         <v>476784</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M29" s="7">
         <v>864</v>
@@ -5651,19 +5657,19 @@
         <v>915273</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>375</v>
+        <v>271</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>106</v>
+        <v>373</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>1923</v>
@@ -5672,13 +5678,13 @@
         <v>2044567</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H30" s="7">
         <v>968</v>
@@ -5687,13 +5693,13 @@
         <v>1053937</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M30" s="7">
         <v>2891</v>
@@ -5702,10 +5708,10 @@
         <v>3098505</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>383</v>
@@ -5723,13 +5729,13 @@
         <v>3426779</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>3296</v>
@@ -5738,13 +5744,13 @@
         <v>3556341</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31" s="7">
         <v>6505</v>
@@ -5753,18 +5759,18 @@
         <v>6983120</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5786,7 +5792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0AB8C1-C90E-4EE1-8B79-AAB95A82A262}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28DFE22-DD8C-4750-8726-05BF6E0A23EA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5952,7 +5958,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>81</v>
@@ -6003,7 +6009,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>243</v>
@@ -6063,13 +6069,13 @@
         <v>418368</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>404</v>
@@ -6078,13 +6084,13 @@
         <v>395755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>796</v>
@@ -6093,18 +6099,18 @@
         <v>814123</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6152,13 +6158,13 @@
         <v>419</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>152</v>
@@ -6167,13 +6173,13 @@
         <v>158604</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H9" s="7">
         <v>234</v>
@@ -6182,13 +6188,13 @@
         <v>224212</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M9" s="7">
         <v>386</v>
@@ -6197,19 +6203,19 @@
         <v>382817</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>354</v>
@@ -6269,13 +6275,13 @@
         <v>590496</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>578</v>
@@ -6284,13 +6290,13 @@
         <v>562545</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>1145</v>
@@ -6299,18 +6305,18 @@
         <v>1153042</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6322,13 +6328,13 @@
         <v>71915</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="H12" s="7">
         <v>163</v>
@@ -6337,13 +6343,13 @@
         <v>162572</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="M12" s="7">
         <v>230</v>
@@ -6352,10 +6358,10 @@
         <v>234488</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>445</v>
@@ -6364,7 +6370,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>159</v>
@@ -6406,16 +6412,16 @@
         <v>452</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>412</v>
@@ -6424,7 +6430,7 @@
         <v>432242</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>454</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>455</v>
@@ -6475,13 +6481,13 @@
         <v>669097</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>664</v>
@@ -6490,13 +6496,13 @@
         <v>660380</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1302</v>
@@ -6505,13 +6511,13 @@
         <v>1329477</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,13 +6534,13 @@
         <v>75170</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="H16" s="7">
         <v>144</v>
@@ -6543,13 +6549,13 @@
         <v>154684</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M16" s="7">
         <v>207</v>
@@ -6570,7 +6576,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>167</v>
@@ -6579,10 +6585,10 @@
         <v>180216</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>472</v>
@@ -6621,7 +6627,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>352</v>
@@ -6681,13 +6687,13 @@
         <v>646048</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>600</v>
@@ -6696,13 +6702,13 @@
         <v>646876</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1182</v>
@@ -6711,18 +6717,18 @@
         <v>1292924</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6740,7 +6746,7 @@
         <v>489</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>490</v>
+        <v>164</v>
       </c>
       <c r="H20" s="7">
         <v>139</v>
@@ -6749,13 +6755,13 @@
         <v>160034</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>449</v>
+        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>193</v>
@@ -6764,19 +6770,19 @@
         <v>221357</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <v>115</v>
@@ -6785,13 +6791,13 @@
         <v>128890</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="H21" s="7">
         <v>178</v>
@@ -6800,13 +6806,13 @@
         <v>202618</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="M21" s="7">
         <v>293</v>
@@ -6815,19 +6821,19 @@
         <v>331508</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>254</v>
@@ -6836,13 +6842,13 @@
         <v>286740</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="H22" s="7">
         <v>114</v>
@@ -6851,13 +6857,13 @@
         <v>131875</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="M22" s="7">
         <v>368</v>
@@ -6866,13 +6872,13 @@
         <v>418615</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,13 +6893,13 @@
         <v>476954</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>431</v>
@@ -6902,13 +6908,13 @@
         <v>494526</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>854</v>
@@ -6917,13 +6923,13 @@
         <v>971480</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,13 +6946,13 @@
         <v>82395</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>512</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>511</v>
       </c>
       <c r="H24" s="7">
         <v>361</v>
@@ -6955,13 +6961,13 @@
         <v>429828</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="M24" s="7">
         <v>447</v>
@@ -6970,19 +6976,19 @@
         <v>512223</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>257</v>
@@ -6991,13 +6997,13 @@
         <v>235132</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="H25" s="7">
         <v>208</v>
@@ -7006,13 +7012,13 @@
         <v>243926</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>522</v>
+        <v>75</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M25" s="7">
         <v>465</v>
@@ -7021,19 +7027,19 @@
         <v>479058</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>284</v>
@@ -7042,13 +7048,13 @@
         <v>273801</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="H26" s="7">
         <v>86</v>
@@ -7057,13 +7063,13 @@
         <v>104177</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>531</v>
+        <v>345</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="M26" s="7">
         <v>370</v>
@@ -7072,13 +7078,13 @@
         <v>377979</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,13 +7099,13 @@
         <v>591328</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>655</v>
@@ -7108,13 +7114,13 @@
         <v>777931</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>1282</v>
@@ -7123,13 +7129,13 @@
         <v>1369259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,13 +7152,13 @@
         <v>431508</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H28" s="7">
         <v>1023</v>
@@ -7161,13 +7167,13 @@
         <v>1121931</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>540</v>
+        <v>397</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="M28" s="7">
         <v>1422</v>
@@ -7176,19 +7182,19 @@
         <v>1553439</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>931</v>
@@ -7197,13 +7203,13 @@
         <v>953515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H29" s="7">
         <v>1207</v>
@@ -7212,13 +7218,13 @@
         <v>1262953</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>548</v>
+        <v>428</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>478</v>
+        <v>544</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="M29" s="7">
         <v>2138</v>
@@ -7227,19 +7233,19 @@
         <v>2216468</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>1899</v>
@@ -7248,13 +7254,13 @@
         <v>2007270</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>549</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>554</v>
+        <v>455</v>
       </c>
       <c r="H30" s="7">
         <v>1102</v>
@@ -7263,13 +7269,13 @@
         <v>1153130</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M30" s="7">
         <v>3001</v>
@@ -7278,13 +7284,13 @@
         <v>3160400</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>119</v>
+        <v>555</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>559</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7299,13 +7305,13 @@
         <v>3392292</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>3332</v>
@@ -7314,13 +7320,13 @@
         <v>3538014</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31" s="7">
         <v>6561</v>
@@ -7329,18 +7335,18 @@
         <v>6930306</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -7362,7 +7368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC07A55-67A4-4763-8442-360D26760739}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8BA129-1590-45F4-80B3-0140B6C12C3A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7379,7 +7385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7486,13 +7492,13 @@
         <v>71476</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>44</v>
+        <v>557</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H4" s="7">
         <v>64</v>
@@ -7501,13 +7507,13 @@
         <v>107578</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M4" s="7">
         <v>102</v>
@@ -7516,19 +7522,19 @@
         <v>179055</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>51</v>
@@ -7537,13 +7543,13 @@
         <v>108970</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H5" s="7">
         <v>51</v>
@@ -7552,13 +7558,13 @@
         <v>86913</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M5" s="7">
         <v>102</v>
@@ -7567,19 +7573,19 @@
         <v>195883</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>83</v>
@@ -7588,13 +7594,13 @@
         <v>197233</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H6" s="7">
         <v>92</v>
@@ -7603,13 +7609,13 @@
         <v>160466</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="M6" s="7">
         <v>175</v>
@@ -7618,13 +7624,13 @@
         <v>357699</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7639,13 +7645,13 @@
         <v>377679</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>207</v>
@@ -7654,13 +7660,13 @@
         <v>354957</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>379</v>
@@ -7669,18 +7675,18 @@
         <v>732636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -7692,13 +7698,13 @@
         <v>63553</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H8" s="7">
         <v>107</v>
@@ -7707,13 +7713,13 @@
         <v>95435</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M8" s="7">
         <v>161</v>
@@ -7722,19 +7728,19 @@
         <v>158988</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>65</v>
@@ -7743,13 +7749,13 @@
         <v>92048</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H9" s="7">
         <v>149</v>
@@ -7758,13 +7764,13 @@
         <v>167427</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="M9" s="7">
         <v>214</v>
@@ -7773,19 +7779,19 @@
         <v>259475</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>380</v>
+        <v>598</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>183</v>
@@ -7794,13 +7800,13 @@
         <v>272795</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>604</v>
       </c>
       <c r="H10" s="7">
         <v>203</v>
@@ -7809,13 +7815,13 @@
         <v>234573</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>607</v>
       </c>
       <c r="M10" s="7">
         <v>386</v>
@@ -7824,13 +7830,13 @@
         <v>507368</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7845,13 +7851,13 @@
         <v>428396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>459</v>
@@ -7860,13 +7866,13 @@
         <v>497435</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>761</v>
@@ -7875,18 +7881,18 @@
         <v>925831</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7898,13 +7904,13 @@
         <v>83795</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>613</v>
       </c>
       <c r="H12" s="7">
         <v>231</v>
@@ -7913,13 +7919,13 @@
         <v>139569</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>616</v>
       </c>
       <c r="M12" s="7">
         <v>333</v>
@@ -7928,19 +7934,19 @@
         <v>223364</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>115</v>
@@ -7949,13 +7955,13 @@
         <v>121551</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>620</v>
+        <v>28</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H13" s="7">
         <v>278</v>
@@ -7964,13 +7970,13 @@
         <v>206494</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="M13" s="7">
         <v>393</v>
@@ -7979,19 +7985,19 @@
         <v>328046</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>328</v>
@@ -8000,13 +8006,13 @@
         <v>351745</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="H14" s="7">
         <v>335</v>
@@ -8015,13 +8021,13 @@
         <v>235720</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>130</v>
+        <v>631</v>
       </c>
       <c r="M14" s="7">
         <v>663</v>
@@ -8030,13 +8036,13 @@
         <v>587466</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8051,13 +8057,13 @@
         <v>557092</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>844</v>
@@ -8066,13 +8072,13 @@
         <v>581783</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1389</v>
@@ -8081,13 +8087,13 @@
         <v>1138876</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,13 +8110,13 @@
         <v>97106</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>638</v>
       </c>
       <c r="H16" s="7">
         <v>320</v>
@@ -8119,13 +8125,13 @@
         <v>206775</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>640</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>641</v>
       </c>
       <c r="M16" s="7">
         <v>438</v>
@@ -8134,19 +8140,19 @@
         <v>303881</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>154</v>
@@ -8155,13 +8161,13 @@
         <v>161665</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>647</v>
       </c>
       <c r="H17" s="7">
         <v>364</v>
@@ -8170,13 +8176,13 @@
         <v>244813</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>648</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>650</v>
       </c>
       <c r="M17" s="7">
         <v>518</v>
@@ -8185,19 +8191,19 @@
         <v>406478</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>651</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>389</v>
@@ -8206,13 +8212,13 @@
         <v>460753</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>654</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>656</v>
       </c>
       <c r="H18" s="7">
         <v>456</v>
@@ -8221,13 +8227,13 @@
         <v>294962</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>658</v>
+        <v>433</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="M18" s="7">
         <v>845</v>
@@ -8236,13 +8242,13 @@
         <v>755715</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8257,13 +8263,13 @@
         <v>719524</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>1140</v>
@@ -8272,13 +8278,13 @@
         <v>746550</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1801</v>
@@ -8287,18 +8293,18 @@
         <v>1466074</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8310,13 +8316,13 @@
         <v>90507</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>663</v>
+        <v>145</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H20" s="7">
         <v>322</v>
@@ -8325,13 +8331,13 @@
         <v>184020</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>502</v>
+        <v>661</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>402</v>
+        <v>662</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M20" s="7">
         <v>434</v>
@@ -8340,19 +8346,19 @@
         <v>274527</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>666</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <v>177</v>
@@ -8361,13 +8367,13 @@
         <v>164962</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>670</v>
+        <v>474</v>
       </c>
       <c r="H21" s="7">
         <v>339</v>
@@ -8376,13 +8382,13 @@
         <v>203887</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>458</v>
+        <v>668</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="M21" s="7">
         <v>516</v>
@@ -8391,19 +8397,19 @@
         <v>368849</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>673</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>373</v>
@@ -8412,13 +8418,13 @@
         <v>343611</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>677</v>
       </c>
       <c r="H22" s="7">
         <v>338</v>
@@ -8427,13 +8433,13 @@
         <v>205028</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>679</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>680</v>
       </c>
       <c r="M22" s="7">
         <v>711</v>
@@ -8442,13 +8448,13 @@
         <v>548639</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>682</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8463,13 +8469,13 @@
         <v>599080</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>999</v>
@@ -8478,13 +8484,13 @@
         <v>592934</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>1661</v>
@@ -8493,13 +8499,13 @@
         <v>1192014</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8516,13 +8522,13 @@
         <v>120526</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>685</v>
       </c>
       <c r="H24" s="7">
         <v>801</v>
@@ -8531,13 +8537,13 @@
         <v>413190</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>686</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>688</v>
       </c>
       <c r="M24" s="7">
         <v>982</v>
@@ -8546,19 +8552,19 @@
         <v>533716</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>689</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>321</v>
@@ -8567,13 +8573,13 @@
         <v>216897</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H25" s="7">
         <v>602</v>
@@ -8582,13 +8588,13 @@
         <v>330518</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>694</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>696</v>
       </c>
       <c r="M25" s="7">
         <v>923</v>
@@ -8597,19 +8603,19 @@
         <v>547415</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>697</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>525</v>
@@ -8618,13 +8624,13 @@
         <v>359389</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>408</v>
+        <v>698</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H26" s="7">
         <v>301</v>
@@ -8633,13 +8639,13 @@
         <v>280015</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>702</v>
       </c>
       <c r="M26" s="7">
         <v>826</v>
@@ -8648,13 +8654,13 @@
         <v>639404</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>703</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8669,13 +8675,13 @@
         <v>696812</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>1704</v>
@@ -8684,13 +8690,13 @@
         <v>1023723</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>2731</v>
@@ -8699,13 +8705,13 @@
         <v>1720535</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8722,13 +8728,13 @@
         <v>526964</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>706</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>708</v>
       </c>
       <c r="H28" s="7">
         <v>1845</v>
@@ -8737,13 +8743,13 @@
         <v>1146567</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>709</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>711</v>
       </c>
       <c r="M28" s="7">
         <v>2450</v>
@@ -8752,19 +8758,19 @@
         <v>1673530</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>883</v>
@@ -8773,13 +8779,13 @@
         <v>866093</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>398</v>
+        <v>712</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>714</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>715</v>
       </c>
       <c r="H29" s="7">
         <v>1783</v>
@@ -8788,13 +8794,13 @@
         <v>1240052</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>717</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="M29" s="7">
         <v>2666</v>
@@ -8815,7 +8821,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>1881</v>
@@ -8830,7 +8836,7 @@
         <v>722</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>378</v>
+        <v>723</v>
       </c>
       <c r="H30" s="7">
         <v>1725</v>
@@ -8839,13 +8845,13 @@
         <v>1410764</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M30" s="7">
         <v>3606</v>
@@ -8854,13 +8860,13 @@
         <v>3396291</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>500</v>
+        <v>728</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8875,13 +8881,13 @@
         <v>3378584</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>5353</v>
@@ -8890,13 +8896,13 @@
         <v>3797383</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31" s="7">
         <v>8722</v>
@@ -8905,18 +8911,18 @@
         <v>7175966</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P29-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P29-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A39C3F6-FBF0-4DE2-8765-EDFD5E8E8CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5D32FDD-D1E6-4A44-99DD-304BCC90F148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08586343-4413-497D-B5C5-0DA763C8EDDF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{284911C2-0403-45DC-B13A-AD5B36E8E26D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="731">
   <si>
     <t>Población según si consumen algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,2158 +77,2161 @@
     <t>28,08%</t>
   </si>
   <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>No, menos de una vez al mes</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
     <t>23,99%</t>
   </si>
   <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>No, menos de una vez al mes</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
   </si>
   <si>
     <t>44,0%</t>
   </si>
   <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
   </si>
   <si>
     <t>14,3%</t>
   </si>
   <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
   </si>
   <si>
     <t>24,47%</t>
   </si>
   <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
     <t>25,63%</t>
   </si>
   <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
   </si>
   <si>
     <t>29,35%</t>
   </si>
   <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
   </si>
   <si>
     <t>58,77%</t>
   </si>
   <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
   </si>
   <si>
     <t>47,33%</t>
   </si>
   <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
   </si>
 </sst>
 </file>
@@ -2640,7 +2643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B619FAB6-7E14-4233-9A28-0C7560D8CA4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339B31FB-BE90-4881-B7C3-6AE9D6F2F446}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2794,19 +2797,19 @@
         <v>309938</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>77</v>
@@ -2815,13 +2818,13 @@
         <v>74602</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>119</v>
@@ -2830,13 +2833,13 @@
         <v>109883</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>196</v>
@@ -2845,19 +2848,19 @@
         <v>184485</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>283</v>
@@ -2866,13 +2869,13 @@
         <v>280713</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>196</v>
@@ -2881,13 +2884,13 @@
         <v>186417</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>479</v>
@@ -2896,13 +2899,13 @@
         <v>467130</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2920,13 @@
         <v>494064</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>489</v>
@@ -2932,13 +2935,13 @@
         <v>467489</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>988</v>
@@ -2947,18 +2950,18 @@
         <v>961553</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2970,13 +2973,13 @@
         <v>116816</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>233</v>
@@ -2985,13 +2988,13 @@
         <v>250935</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>338</v>
@@ -3000,19 +3003,19 @@
         <v>367750</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>113</v>
@@ -3021,13 +3024,13 @@
         <v>116792</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>154</v>
@@ -3036,13 +3039,13 @@
         <v>156283</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>267</v>
@@ -3051,19 +3054,19 @@
         <v>273075</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>485</v>
@@ -3072,13 +3075,13 @@
         <v>501881</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>204</v>
@@ -3087,13 +3090,13 @@
         <v>218276</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>689</v>
@@ -3102,13 +3105,13 @@
         <v>720157</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,13 +3126,13 @@
         <v>735489</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -3138,13 +3141,13 @@
         <v>625494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>1294</v>
@@ -3153,18 +3156,18 @@
         <v>1360982</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3176,13 +3179,13 @@
         <v>127096</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>300</v>
@@ -3191,13 +3194,13 @@
         <v>323100</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>412</v>
@@ -3206,19 +3209,19 @@
         <v>450196</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>108</v>
@@ -3227,13 +3230,13 @@
         <v>109781</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>141</v>
@@ -3242,13 +3245,13 @@
         <v>142374</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>249</v>
@@ -3257,10 +3260,10 @@
         <v>252155</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>85</v>
@@ -3269,7 +3272,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>393</v>
@@ -3329,13 +3332,13 @@
         <v>638668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>658</v>
@@ -3344,13 +3347,13 @@
         <v>689744</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>1271</v>
@@ -3359,13 +3362,13 @@
         <v>1328412</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,7 +3427,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>75</v>
@@ -3451,10 +3454,10 @@
         <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>183</v>
@@ -3463,19 +3466,19 @@
         <v>189733</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>295</v>
@@ -3484,13 +3487,13 @@
         <v>313494</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>139</v>
@@ -3499,13 +3502,13 @@
         <v>145203</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>434</v>
@@ -3514,13 +3517,13 @@
         <v>458697</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3538,13 @@
         <v>519147</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>502</v>
@@ -3550,13 +3553,13 @@
         <v>515642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>986</v>
@@ -3565,18 +3568,18 @@
         <v>1034789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3588,13 +3591,13 @@
         <v>130986</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H20" s="7">
         <v>238</v>
@@ -3630,7 +3633,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>76</v>
@@ -3681,7 +3684,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
         <v>183</v>
@@ -3741,13 +3744,13 @@
         <v>386710</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>396</v>
@@ -3756,13 +3759,13 @@
         <v>403986</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>788</v>
@@ -3771,13 +3774,13 @@
         <v>790696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,7 +3803,7 @@
         <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>520</v>
@@ -3809,13 +3812,13 @@
         <v>537659</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>744</v>
@@ -3824,19 +3827,19 @@
         <v>751658</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>92</v>
@@ -3845,13 +3848,13 @@
         <v>85533</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>96</v>
@@ -3860,13 +3863,13 @@
         <v>93265</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>188</v>
@@ -3875,19 +3878,19 @@
         <v>178799</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>207</v>
@@ -3896,13 +3899,13 @@
         <v>202934</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>45</v>
@@ -3911,13 +3914,13 @@
         <v>45918</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>252</v>
@@ -3926,13 +3929,13 @@
         <v>248852</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3950,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -3962,13 +3965,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -3977,13 +3980,13 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4003,13 @@
         <v>853552</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H28" s="7">
         <v>1720</v>
@@ -4015,13 +4018,13 @@
         <v>1786962</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>2547</v>
@@ -4030,34 +4033,34 @@
         <v>2640514</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>541</v>
       </c>
       <c r="D29" s="7">
-        <v>542087</v>
+        <v>542088</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>702</v>
@@ -4066,7 +4069,7 @@
         <v>696715</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>189</v>
@@ -4093,7 +4096,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>1846</v>
@@ -4129,7 +4132,7 @@
         <v>2721</v>
       </c>
       <c r="N30" s="7">
-        <v>2776425</v>
+        <v>2776424</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>200</v>
@@ -4150,16 +4153,16 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" s="7">
         <v>3297</v>
@@ -4168,28 +4171,28 @@
         <v>3379198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M31" s="7">
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,7 +4219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8014E53A-D07B-4DA7-BBBD-E00477C1A14F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9282F6C4-1D87-4B8A-BA44-063FDC51F46D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4382,7 +4385,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>56</v>
@@ -4397,7 +4400,7 @@
         <v>215</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -4406,13 +4409,13 @@
         <v>62142</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M5" s="7">
         <v>118</v>
@@ -4421,19 +4424,19 @@
         <v>120651</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>279</v>
@@ -4442,13 +4445,13 @@
         <v>281860</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H6" s="7">
         <v>179</v>
@@ -4457,13 +4460,13 @@
         <v>184517</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M6" s="7">
         <v>458</v>
@@ -4472,13 +4475,13 @@
         <v>466377</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4496,13 @@
         <v>454146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>421</v>
@@ -4508,13 +4511,13 @@
         <v>430230</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>867</v>
@@ -4523,18 +4526,18 @@
         <v>884376</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4546,13 +4549,13 @@
         <v>154249</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>277</v>
@@ -4561,13 +4564,13 @@
         <v>298700</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>425</v>
@@ -4576,19 +4579,19 @@
         <v>452949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>63</v>
@@ -4597,13 +4600,13 @@
         <v>65042</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H9" s="7">
         <v>91</v>
@@ -4612,13 +4615,13 @@
         <v>97119</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M9" s="7">
         <v>154</v>
@@ -4627,19 +4630,19 @@
         <v>162161</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>456</v>
@@ -4648,13 +4651,13 @@
         <v>467796</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>202</v>
@@ -4663,13 +4666,13 @@
         <v>213435</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>658</v>
@@ -4678,13 +4681,13 @@
         <v>681231</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4702,13 @@
         <v>687087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>570</v>
@@ -4714,13 +4717,13 @@
         <v>609254</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>1237</v>
@@ -4729,18 +4732,18 @@
         <v>1296341</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4752,13 +4755,13 @@
         <v>166310</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H12" s="7">
         <v>336</v>
@@ -4767,13 +4770,13 @@
         <v>352975</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M12" s="7">
         <v>491</v>
@@ -4782,19 +4785,19 @@
         <v>519285</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>85</v>
@@ -4803,13 +4806,13 @@
         <v>86505</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>106</v>
@@ -4818,13 +4821,13 @@
         <v>112448</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>191</v>
@@ -4833,19 +4836,19 @@
         <v>198953</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>106</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>411</v>
@@ -4854,13 +4857,13 @@
         <v>429048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>225</v>
@@ -4869,13 +4872,13 @@
         <v>245427</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>636</v>
@@ -4884,13 +4887,13 @@
         <v>674474</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,13 +4908,13 @@
         <v>681863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>667</v>
@@ -4920,13 +4923,13 @@
         <v>710850</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>1318</v>
@@ -4935,13 +4938,13 @@
         <v>1392712</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4961,13 @@
         <v>140226</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>286</v>
@@ -4973,13 +4976,13 @@
         <v>329877</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
         <v>409</v>
@@ -4988,19 +4991,19 @@
         <v>470103</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>72</v>
@@ -5009,13 +5012,13 @@
         <v>80283</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -5024,13 +5027,13 @@
         <v>69807</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -5039,19 +5042,19 @@
         <v>150090</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>353</v>
@@ -5111,13 +5114,13 @@
         <v>614617</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>539</v>
@@ -5126,13 +5129,13 @@
         <v>616199</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1087</v>
@@ -5141,18 +5144,18 @@
         <v>1230816</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5206,7 +5209,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>67</v>
@@ -5215,13 +5218,13 @@
         <v>70940</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>164</v>
+        <v>320</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H21" s="7">
         <v>52</v>
@@ -5230,13 +5233,13 @@
         <v>56767</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>325</v>
       </c>
       <c r="M21" s="7">
         <v>119</v>
@@ -5245,19 +5248,19 @@
         <v>127707</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
         <v>211</v>
@@ -5266,13 +5269,13 @@
         <v>231791</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>329</v>
+        <v>87</v>
       </c>
       <c r="H22" s="7">
         <v>99</v>
@@ -5284,10 +5287,10 @@
         <v>205</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>310</v>
@@ -5296,13 +5299,13 @@
         <v>343984</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5320,13 @@
         <v>429429</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>406</v>
@@ -5332,13 +5335,13 @@
         <v>447800</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>799</v>
@@ -5347,13 +5350,13 @@
         <v>877229</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,13 +5373,13 @@
         <v>242462</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H24" s="7">
         <v>544</v>
@@ -5385,13 +5388,13 @@
         <v>581657</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M24" s="7">
         <v>764</v>
@@ -5400,19 +5403,19 @@
         <v>824120</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>71</v>
@@ -5421,13 +5424,13 @@
         <v>77210</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>76</v>
@@ -5436,13 +5439,13 @@
         <v>78501</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M25" s="7">
         <v>147</v>
@@ -5451,19 +5454,19 @@
         <v>155711</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>213</v>
@@ -5472,13 +5475,13 @@
         <v>239964</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>290</v>
+        <v>355</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H26" s="7">
         <v>73</v>
@@ -5487,13 +5490,13 @@
         <v>81851</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M26" s="7">
         <v>286</v>
@@ -5502,13 +5505,13 @@
         <v>321815</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>231</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>25</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5526,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" s="7">
         <v>693</v>
@@ -5538,13 +5541,13 @@
         <v>742008</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M27" s="7">
         <v>1197</v>
@@ -5553,13 +5556,13 @@
         <v>1301646</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5579,13 @@
         <v>943722</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>359</v>
+        <v>176</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H28" s="7">
         <v>1878</v>
@@ -5591,13 +5594,13 @@
         <v>2025620</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M28" s="7">
         <v>2750</v>
@@ -5606,19 +5609,19 @@
         <v>2969342</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>366</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>414</v>
@@ -5627,13 +5630,13 @@
         <v>438489</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H29" s="7">
         <v>450</v>
@@ -5642,13 +5645,13 @@
         <v>476784</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M29" s="7">
         <v>864</v>
@@ -5657,19 +5660,19 @@
         <v>915273</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>271</v>
+        <v>376</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>1923</v>
@@ -5678,13 +5681,13 @@
         <v>2044567</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>377</v>
+        <v>33</v>
       </c>
       <c r="H30" s="7">
         <v>968</v>
@@ -5693,13 +5696,13 @@
         <v>1053937</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M30" s="7">
         <v>2891</v>
@@ -5708,13 +5711,13 @@
         <v>3098505</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>381</v>
+        <v>47</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5732,13 @@
         <v>3426779</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" s="7">
         <v>3296</v>
@@ -5744,13 +5747,13 @@
         <v>3556341</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M31" s="7">
         <v>6505</v>
@@ -5759,13 +5762,13 @@
         <v>6983120</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,7 +5795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28DFE22-DD8C-4750-8726-05BF6E0A23EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA3D7DE-F6F2-47C0-9E7D-85E7B504059A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5809,7 +5812,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5916,13 +5919,13 @@
         <v>75399</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>386</v>
+        <v>249</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H4" s="7">
         <v>104</v>
@@ -5931,13 +5934,13 @@
         <v>103831</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M4" s="7">
         <v>172</v>
@@ -5946,19 +5949,19 @@
         <v>179231</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>81</v>
@@ -5967,10 +5970,10 @@
         <v>85733</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>396</v>
@@ -5985,10 +5988,10 @@
         <v>397</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M5" s="7">
         <v>204</v>
@@ -5997,19 +6000,19 @@
         <v>205162</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>243</v>
@@ -6018,13 +6021,13 @@
         <v>257236</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H6" s="7">
         <v>177</v>
@@ -6033,13 +6036,13 @@
         <v>172494</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M6" s="7">
         <v>420</v>
@@ -6048,13 +6051,13 @@
         <v>429730</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,13 +6072,13 @@
         <v>418368</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>404</v>
@@ -6084,13 +6087,13 @@
         <v>395755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>796</v>
@@ -6099,18 +6102,18 @@
         <v>814123</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6122,13 +6125,13 @@
         <v>65305</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H8" s="7">
         <v>112</v>
@@ -6137,13 +6140,13 @@
         <v>110982</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M8" s="7">
         <v>173</v>
@@ -6152,19 +6155,19 @@
         <v>176286</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>152</v>
@@ -6215,7 +6218,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>354</v>
@@ -6275,13 +6278,13 @@
         <v>590496</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>578</v>
@@ -6290,13 +6293,13 @@
         <v>562545</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>1145</v>
@@ -6305,18 +6308,18 @@
         <v>1153042</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6328,13 +6331,13 @@
         <v>71915</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>345</v>
+        <v>438</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H12" s="7">
         <v>163</v>
@@ -6343,13 +6346,13 @@
         <v>162572</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M12" s="7">
         <v>230</v>
@@ -6358,19 +6361,19 @@
         <v>234488</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>159</v>
@@ -6379,13 +6382,13 @@
         <v>164939</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H13" s="7">
         <v>251</v>
@@ -6394,13 +6397,13 @@
         <v>246829</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M13" s="7">
         <v>410</v>
@@ -6409,7 +6412,7 @@
         <v>411768</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>452</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>453</v>
@@ -6421,7 +6424,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>412</v>
@@ -6430,13 +6433,13 @@
         <v>432242</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>455</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H14" s="7">
         <v>250</v>
@@ -6445,13 +6448,13 @@
         <v>250979</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>459</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>662</v>
@@ -6481,13 +6484,13 @@
         <v>669097</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>664</v>
@@ -6496,13 +6499,13 @@
         <v>660380</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>1302</v>
@@ -6511,13 +6514,13 @@
         <v>1329477</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,7 +6537,7 @@
         <v>75170</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>463</v>
@@ -6552,10 +6555,10 @@
         <v>465</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="M16" s="7">
         <v>207</v>
@@ -6564,19 +6567,19 @@
         <v>229854</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>167</v>
@@ -6585,7 +6588,7 @@
         <v>180216</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>471</v>
@@ -6603,10 +6606,10 @@
         <v>473</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M17" s="7">
         <v>380</v>
@@ -6615,19 +6618,19 @@
         <v>406154</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>352</v>
@@ -6636,13 +6639,13 @@
         <v>390662</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="H18" s="7">
         <v>243</v>
@@ -6651,13 +6654,13 @@
         <v>266253</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M18" s="7">
         <v>595</v>
@@ -6666,13 +6669,13 @@
         <v>656915</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,13 +6690,13 @@
         <v>646048</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>600</v>
@@ -6702,13 +6705,13 @@
         <v>646876</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1182</v>
@@ -6717,18 +6720,18 @@
         <v>1292924</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6740,13 +6743,13 @@
         <v>61323</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H20" s="7">
         <v>139</v>
@@ -6755,13 +6758,13 @@
         <v>160034</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>193</v>
@@ -6782,7 +6785,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>115</v>
@@ -6791,13 +6794,13 @@
         <v>128890</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>495</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="H21" s="7">
         <v>178</v>
@@ -6806,13 +6809,13 @@
         <v>202618</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>498</v>
+        <v>385</v>
       </c>
       <c r="M21" s="7">
         <v>293</v>
@@ -6821,19 +6824,19 @@
         <v>331508</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
         <v>254</v>
@@ -6842,13 +6845,13 @@
         <v>286740</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="H22" s="7">
         <v>114</v>
@@ -6857,13 +6860,13 @@
         <v>131875</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="M22" s="7">
         <v>368</v>
@@ -6872,13 +6875,13 @@
         <v>418615</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,13 +6896,13 @@
         <v>476954</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>431</v>
@@ -6908,13 +6911,13 @@
         <v>494526</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>854</v>
@@ -6923,13 +6926,13 @@
         <v>971480</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,10 +6949,10 @@
         <v>82395</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>378</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>510</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>511</v>
@@ -6961,13 +6964,13 @@
         <v>429828</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="M24" s="7">
         <v>447</v>
@@ -6976,19 +6979,19 @@
         <v>512223</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>257</v>
@@ -6997,13 +7000,13 @@
         <v>235132</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="H25" s="7">
         <v>208</v>
@@ -7012,13 +7015,13 @@
         <v>243926</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>75</v>
+        <v>306</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>520</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>521</v>
+        <v>238</v>
       </c>
       <c r="M25" s="7">
         <v>465</v>
@@ -7027,19 +7030,19 @@
         <v>479058</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>284</v>
@@ -7048,13 +7051,13 @@
         <v>273801</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="H26" s="7">
         <v>86</v>
@@ -7063,10 +7066,10 @@
         <v>104177</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>529</v>
@@ -7099,13 +7102,13 @@
         <v>591328</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" s="7">
         <v>655</v>
@@ -7114,13 +7117,13 @@
         <v>777931</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M27" s="7">
         <v>1282</v>
@@ -7129,13 +7132,13 @@
         <v>1369259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,7 +7161,7 @@
         <v>534</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>535</v>
+        <v>372</v>
       </c>
       <c r="H28" s="7">
         <v>1023</v>
@@ -7167,10 +7170,10 @@
         <v>1121931</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>537</v>
@@ -7194,7 +7197,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>931</v>
@@ -7218,13 +7221,13 @@
         <v>1262953</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>428</v>
+        <v>544</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M29" s="7">
         <v>2138</v>
@@ -7233,19 +7236,19 @@
         <v>2216468</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>1899</v>
@@ -7254,13 +7257,13 @@
         <v>2007270</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>455</v>
+        <v>552</v>
       </c>
       <c r="H30" s="7">
         <v>1102</v>
@@ -7269,13 +7272,13 @@
         <v>1153130</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>553</v>
+        <v>103</v>
       </c>
       <c r="M30" s="7">
         <v>3001</v>
@@ -7284,13 +7287,13 @@
         <v>3160400</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>554</v>
+        <v>385</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>555</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>71</v>
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7305,13 +7308,13 @@
         <v>3392292</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" s="7">
         <v>3332</v>
@@ -7320,13 +7323,13 @@
         <v>3538014</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M31" s="7">
         <v>6561</v>
@@ -7335,13 +7338,13 @@
         <v>6930306</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7368,7 +7371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8BA129-1590-45F4-80B3-0140B6C12C3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448F314C-5CC9-49E1-974F-43BF3ECBA519}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7385,7 +7388,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7492,13 +7495,13 @@
         <v>71476</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H4" s="7">
         <v>64</v>
@@ -7507,13 +7510,13 @@
         <v>107578</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M4" s="7">
         <v>102</v>
@@ -7522,19 +7525,19 @@
         <v>179055</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>51</v>
@@ -7543,13 +7546,13 @@
         <v>108970</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H5" s="7">
         <v>51</v>
@@ -7558,13 +7561,13 @@
         <v>86913</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M5" s="7">
         <v>102</v>
@@ -7573,19 +7576,19 @@
         <v>195883</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>83</v>
@@ -7594,13 +7597,13 @@
         <v>197233</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H6" s="7">
         <v>92</v>
@@ -7609,13 +7612,13 @@
         <v>160466</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M6" s="7">
         <v>175</v>
@@ -7624,13 +7627,13 @@
         <v>357699</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7645,13 +7648,13 @@
         <v>377679</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>207</v>
@@ -7660,13 +7663,13 @@
         <v>354957</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>379</v>
@@ -7675,18 +7678,18 @@
         <v>732636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -7698,13 +7701,13 @@
         <v>63553</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H8" s="7">
         <v>107</v>
@@ -7713,13 +7716,13 @@
         <v>95435</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M8" s="7">
         <v>161</v>
@@ -7728,19 +7731,19 @@
         <v>158988</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>65</v>
@@ -7749,13 +7752,13 @@
         <v>92048</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H9" s="7">
         <v>149</v>
@@ -7764,13 +7767,13 @@
         <v>167427</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>597</v>
+        <v>406</v>
       </c>
       <c r="M9" s="7">
         <v>214</v>
@@ -7791,7 +7794,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>183</v>
@@ -7851,13 +7854,13 @@
         <v>428396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>459</v>
@@ -7866,13 +7869,13 @@
         <v>497435</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>761</v>
@@ -7881,18 +7884,18 @@
         <v>925831</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7919,13 +7922,13 @@
         <v>139569</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>613</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M12" s="7">
         <v>333</v>
@@ -7934,7 +7937,7 @@
         <v>223364</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>615</v>
+        <v>446</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>616</v>
@@ -7946,7 +7949,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>115</v>
@@ -7955,7 +7958,7 @@
         <v>121551</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>618</v>
@@ -7970,13 +7973,13 @@
         <v>206494</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="M13" s="7">
         <v>393</v>
@@ -7985,19 +7988,19 @@
         <v>328046</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>328</v>
@@ -8006,13 +8009,13 @@
         <v>351745</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>628</v>
       </c>
       <c r="H14" s="7">
         <v>335</v>
@@ -8021,13 +8024,13 @@
         <v>235720</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>631</v>
       </c>
       <c r="M14" s="7">
         <v>663</v>
@@ -8036,13 +8039,13 @@
         <v>587466</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8057,13 +8060,13 @@
         <v>557092</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>844</v>
@@ -8072,13 +8075,13 @@
         <v>581783</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>1389</v>
@@ -8087,13 +8090,13 @@
         <v>1138876</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,13 +8113,13 @@
         <v>97106</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>636</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>637</v>
       </c>
       <c r="H16" s="7">
         <v>320</v>
@@ -8125,13 +8128,13 @@
         <v>206775</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>640</v>
       </c>
       <c r="M16" s="7">
         <v>438</v>
@@ -8140,7 +8143,7 @@
         <v>303881</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>640</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>641</v>
@@ -8152,7 +8155,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>154</v>
@@ -8203,7 +8206,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>389</v>
@@ -8230,10 +8233,10 @@
         <v>655</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>433</v>
+        <v>656</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>656</v>
+        <v>226</v>
       </c>
       <c r="M18" s="7">
         <v>845</v>
@@ -8263,13 +8266,13 @@
         <v>719524</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>1140</v>
@@ -8278,33 +8281,33 @@
         <v>746550</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1801</v>
       </c>
       <c r="N19" s="7">
-        <v>1466074</v>
+        <v>1466075</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8316,13 +8319,13 @@
         <v>90507</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>145</v>
+        <v>660</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>641</v>
+        <v>662</v>
       </c>
       <c r="H20" s="7">
         <v>322</v>
@@ -8331,13 +8334,13 @@
         <v>184020</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="M20" s="7">
         <v>434</v>
@@ -8346,19 +8349,19 @@
         <v>274527</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>177</v>
@@ -8367,13 +8370,13 @@
         <v>164962</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>474</v>
+        <v>670</v>
       </c>
       <c r="H21" s="7">
         <v>339</v>
@@ -8382,13 +8385,13 @@
         <v>203887</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="M21" s="7">
         <v>516</v>
@@ -8397,19 +8400,19 @@
         <v>368849</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
         <v>373</v>
@@ -8418,13 +8421,13 @@
         <v>343611</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="H22" s="7">
         <v>338</v>
@@ -8433,13 +8436,13 @@
         <v>205028</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="M22" s="7">
         <v>711</v>
@@ -8448,13 +8451,13 @@
         <v>548639</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>684</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>658</v>
+        <v>685</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8469,13 +8472,13 @@
         <v>599080</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>999</v>
@@ -8484,13 +8487,13 @@
         <v>592934</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>1661</v>
@@ -8499,13 +8502,13 @@
         <v>1192014</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8522,13 +8525,13 @@
         <v>120526</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>681</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="H24" s="7">
         <v>801</v>
@@ -8537,13 +8540,13 @@
         <v>413190</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="M24" s="7">
         <v>982</v>
@@ -8552,19 +8555,19 @@
         <v>533716</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>688</v>
+        <v>134</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>321</v>
@@ -8573,13 +8576,13 @@
         <v>216897</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>663</v>
+        <v>695</v>
       </c>
       <c r="H25" s="7">
         <v>602</v>
@@ -8588,13 +8591,13 @@
         <v>330518</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>692</v>
+        <v>522</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="M25" s="7">
         <v>923</v>
@@ -8603,19 +8606,19 @@
         <v>547415</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>525</v>
@@ -8624,13 +8627,13 @@
         <v>359389</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="H26" s="7">
         <v>301</v>
@@ -8639,28 +8642,28 @@
         <v>280015</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>614</v>
+        <v>703</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="M26" s="7">
         <v>826</v>
       </c>
       <c r="N26" s="7">
-        <v>639404</v>
+        <v>639405</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8675,13 +8678,13 @@
         <v>696812</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" s="7">
         <v>1704</v>
@@ -8690,28 +8693,28 @@
         <v>1023723</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M27" s="7">
         <v>2731</v>
       </c>
       <c r="N27" s="7">
-        <v>1720535</v>
+        <v>1720536</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8728,13 +8731,13 @@
         <v>526964</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>704</v>
+        <v>133</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>706</v>
+        <v>590</v>
       </c>
       <c r="H28" s="7">
         <v>1845</v>
@@ -8743,13 +8746,13 @@
         <v>1146567</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="M28" s="7">
         <v>2450</v>
@@ -8758,19 +8761,19 @@
         <v>1673530</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>642</v>
+        <v>712</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>883</v>
@@ -8779,13 +8782,13 @@
         <v>866093</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="H29" s="7">
         <v>1783</v>
@@ -8794,13 +8797,13 @@
         <v>1240052</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="M29" s="7">
         <v>2666</v>
@@ -8809,19 +8812,19 @@
         <v>2106145</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>1881</v>
@@ -8830,13 +8833,13 @@
         <v>1985527</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="H30" s="7">
         <v>1725</v>
@@ -8845,13 +8848,13 @@
         <v>1410764</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>724</v>
+        <v>629</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>725</v>
+        <v>680</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M30" s="7">
         <v>3606</v>
@@ -8860,13 +8863,13 @@
         <v>3396291</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8881,13 +8884,13 @@
         <v>3378584</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" s="7">
         <v>5353</v>
@@ -8896,13 +8899,13 @@
         <v>3797383</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M31" s="7">
         <v>8722</v>
@@ -8911,13 +8914,13 @@
         <v>7175966</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P29-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P29-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5D32FDD-D1E6-4A44-99DD-304BCC90F148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27E593BC-9CAD-4510-9C1F-1A7A23D21318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{284911C2-0403-45DC-B13A-AD5B36E8E26D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3D476770-37A1-441C-905C-891CEA8DD9C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="820">
   <si>
     <t>Población según si consumen algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No, no consume bebidas alcohólicas</t>
@@ -164,7 +164,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>15,88%</t>
@@ -245,7 +245,7 @@
     <t>55,4%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>19,9%</t>
@@ -326,7 +326,7 @@
     <t>50,07%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>24,25%</t>
@@ -407,7 +407,7 @@
     <t>47,72%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>33,87%</t>
@@ -491,1747 +491,2014 @@
     <t>35,78%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
   </si>
   <si>
     <t>21,1%</t>
   </si>
   <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
   </si>
   <si>
     <t>28,42%</t>
   </si>
   <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
   </si>
   <si>
     <t>32,25%</t>
   </si>
   <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
   </si>
   <si>
     <t>24,47%</t>
   </si>
   <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
   </si>
 </sst>
 </file>
@@ -2643,8 +2910,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339B31FB-BE90-4881-B7C3-6AE9D6F2F446}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDCD577-2A52-4DD6-B836-98D5440647D7}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3791,10 +4058,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="D24" s="7">
-        <v>213998</v>
+        <v>113315</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>151</v>
@@ -3806,10 +4073,10 @@
         <v>153</v>
       </c>
       <c r="H24" s="7">
-        <v>520</v>
+        <v>276</v>
       </c>
       <c r="I24" s="7">
-        <v>537659</v>
+        <v>256096</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>154</v>
@@ -3821,10 +4088,10 @@
         <v>156</v>
       </c>
       <c r="M24" s="7">
-        <v>744</v>
+        <v>394</v>
       </c>
       <c r="N24" s="7">
-        <v>751658</v>
+        <v>369412</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>157</v>
@@ -3842,10 +4109,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="D25" s="7">
-        <v>85533</v>
+        <v>49469</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>160</v>
@@ -3857,10 +4124,10 @@
         <v>162</v>
       </c>
       <c r="H25" s="7">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="I25" s="7">
-        <v>93265</v>
+        <v>57445</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>163</v>
@@ -3872,19 +4139,19 @@
         <v>165</v>
       </c>
       <c r="M25" s="7">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="N25" s="7">
-        <v>178799</v>
+        <v>106914</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,49 +4160,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="D26" s="7">
-        <v>202934</v>
+        <v>129799</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>31</v>
+      </c>
+      <c r="I26" s="7">
+        <v>29393</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H26" s="7">
-        <v>45</v>
-      </c>
-      <c r="I26" s="7">
-        <v>45918</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>164</v>
+      </c>
+      <c r="N26" s="7">
+        <v>159191</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="M26" s="7">
-        <v>252</v>
-      </c>
-      <c r="N26" s="7">
-        <v>248852</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,10 +4211,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3959,10 +4226,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -3974,10 +4241,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3991,55 +4258,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>827</v>
+        <v>106</v>
       </c>
       <c r="D28" s="7">
-        <v>853552</v>
+        <v>100683</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H28" s="7">
-        <v>1720</v>
+        <v>244</v>
       </c>
       <c r="I28" s="7">
-        <v>1786962</v>
+        <v>281563</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
-        <v>2547</v>
+        <v>350</v>
       </c>
       <c r="N28" s="7">
-        <v>2640514</v>
+        <v>382246</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,49 +4315,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>541</v>
+        <v>40</v>
       </c>
       <c r="D29" s="7">
-        <v>542088</v>
+        <v>36064</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H29" s="7">
-        <v>702</v>
+        <v>32</v>
       </c>
       <c r="I29" s="7">
-        <v>696715</v>
+        <v>35820</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
-        <v>1243</v>
+        <v>72</v>
       </c>
       <c r="N29" s="7">
-        <v>1238802</v>
+        <v>71885</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,49 +4366,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>1846</v>
+        <v>74</v>
       </c>
       <c r="D30" s="7">
-        <v>1880904</v>
+        <v>73135</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
-        <v>875</v>
+        <v>14</v>
       </c>
       <c r="I30" s="7">
-        <v>895521</v>
+        <v>16525</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
-        <v>2721</v>
+        <v>88</v>
       </c>
       <c r="N30" s="7">
-        <v>2776424</v>
+        <v>89660</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,63 +4417,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>827</v>
+      </c>
+      <c r="D32" s="7">
+        <v>853552</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1720</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1786962</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2547</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2640514</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>541</v>
+      </c>
+      <c r="D33" s="7">
+        <v>542087</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="7">
+        <v>702</v>
+      </c>
+      <c r="I33" s="7">
+        <v>696715</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1243</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1238802</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1846</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1880904</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="7">
+        <v>875</v>
+      </c>
+      <c r="I34" s="7">
+        <v>895521</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2721</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2776425</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3214</v>
       </c>
-      <c r="D31" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3297</v>
       </c>
-      <c r="I31" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6511</v>
       </c>
-      <c r="N31" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>203</v>
+      <c r="N35" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4219,8 +4693,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9282F6C4-1D87-4B8A-BA44-063FDC51F46D}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAEFC3F-B8FA-40A3-B386-4DD16719530A}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4236,7 +4710,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4343,13 +4817,13 @@
         <v>113777</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>180</v>
@@ -4358,13 +4832,13 @@
         <v>183572</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>291</v>
@@ -4373,13 +4847,13 @@
         <v>297349</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4868,13 @@
         <v>58509</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -4409,13 +4883,13 @@
         <v>62142</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>118</v>
@@ -4424,13 +4898,13 @@
         <v>120651</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4919,13 @@
         <v>281860</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="H6" s="7">
         <v>179</v>
@@ -4460,13 +4934,13 @@
         <v>184517</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="M6" s="7">
         <v>458</v>
@@ -4475,13 +4949,13 @@
         <v>466377</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +5023,13 @@
         <v>154249</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>277</v>
@@ -4564,13 +5038,13 @@
         <v>298700</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>425</v>
@@ -4579,13 +5053,13 @@
         <v>452949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +5074,13 @@
         <v>65042</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="H9" s="7">
         <v>91</v>
@@ -4615,13 +5089,13 @@
         <v>97119</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="M9" s="7">
         <v>154</v>
@@ -4630,13 +5104,13 @@
         <v>162161</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +5125,13 @@
         <v>467796</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="H10" s="7">
         <v>202</v>
@@ -4666,13 +5140,13 @@
         <v>213435</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>658</v>
@@ -4681,13 +5155,13 @@
         <v>681231</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +5229,13 @@
         <v>166310</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="H12" s="7">
         <v>336</v>
@@ -4770,13 +5244,13 @@
         <v>352975</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="M12" s="7">
         <v>491</v>
@@ -4785,13 +5259,13 @@
         <v>519285</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +5280,13 @@
         <v>86505</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>106</v>
@@ -4821,13 +5295,13 @@
         <v>112448</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="M13" s="7">
         <v>191</v>
@@ -4836,13 +5310,13 @@
         <v>198953</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,13 +5331,13 @@
         <v>429048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="H14" s="7">
         <v>225</v>
@@ -4872,13 +5346,13 @@
         <v>245427</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="M14" s="7">
         <v>636</v>
@@ -4887,13 +5361,13 @@
         <v>674474</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +5435,13 @@
         <v>140226</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="H16" s="7">
         <v>286</v>
@@ -4976,13 +5450,13 @@
         <v>329877</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="M16" s="7">
         <v>409</v>
@@ -4991,13 +5465,13 @@
         <v>470103</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +5486,13 @@
         <v>80283</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -5027,13 +5501,13 @@
         <v>69807</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -5042,13 +5516,13 @@
         <v>150090</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5537,13 @@
         <v>394108</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="H18" s="7">
         <v>190</v>
@@ -5078,13 +5552,13 @@
         <v>216515</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="M18" s="7">
         <v>543</v>
@@ -5093,13 +5567,13 @@
         <v>610623</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5641,13 @@
         <v>126699</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -5182,13 +5656,13 @@
         <v>278839</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="M20" s="7">
         <v>370</v>
@@ -5197,13 +5671,13 @@
         <v>405538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5692,13 @@
         <v>70940</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="H21" s="7">
         <v>52</v>
@@ -5233,13 +5707,13 @@
         <v>56767</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="M21" s="7">
         <v>119</v>
@@ -5248,13 +5722,13 @@
         <v>127707</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>326</v>
+        <v>191</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,10 +5743,10 @@
         <v>231791</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>87</v>
@@ -5284,13 +5758,13 @@
         <v>112194</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="M22" s="7">
         <v>310</v>
@@ -5299,13 +5773,13 @@
         <v>343984</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,49 +5841,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="D24" s="7">
-        <v>242462</v>
+        <v>108209</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="H24" s="7">
-        <v>544</v>
+        <v>247</v>
       </c>
       <c r="I24" s="7">
-        <v>581657</v>
+        <v>251695</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="M24" s="7">
-        <v>764</v>
+        <v>346</v>
       </c>
       <c r="N24" s="7">
-        <v>824120</v>
+        <v>359905</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,49 +5892,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D25" s="7">
-        <v>77210</v>
+        <v>47144</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="H25" s="7">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="I25" s="7">
-        <v>78501</v>
+        <v>43852</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="M25" s="7">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="N25" s="7">
-        <v>155711</v>
+        <v>90996</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,49 +5943,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="D26" s="7">
-        <v>239964</v>
+        <v>154433</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="H26" s="7">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="I26" s="7">
-        <v>81851</v>
+        <v>57482</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="M26" s="7">
-        <v>286</v>
+        <v>190</v>
       </c>
       <c r="N26" s="7">
-        <v>321815</v>
+        <v>211915</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,10 +5994,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -5535,10 +6009,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>693</v>
+        <v>343</v>
       </c>
       <c r="I27" s="7">
-        <v>742008</v>
+        <v>353029</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -5550,10 +6024,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1197</v>
+        <v>625</v>
       </c>
       <c r="N27" s="7">
-        <v>1301646</v>
+        <v>662816</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -5567,55 +6041,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>872</v>
+        <v>121</v>
       </c>
       <c r="D28" s="7">
-        <v>943722</v>
+        <v>134253</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="H28" s="7">
-        <v>1878</v>
+        <v>297</v>
       </c>
       <c r="I28" s="7">
-        <v>2025620</v>
+        <v>329962</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="M28" s="7">
-        <v>2750</v>
+        <v>418</v>
       </c>
       <c r="N28" s="7">
-        <v>2969342</v>
+        <v>464215</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>130</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,49 +6098,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>414</v>
+        <v>27</v>
       </c>
       <c r="D29" s="7">
-        <v>438489</v>
+        <v>30066</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="H29" s="7">
-        <v>450</v>
+        <v>31</v>
       </c>
       <c r="I29" s="7">
-        <v>476784</v>
+        <v>34649</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="M29" s="7">
-        <v>864</v>
+        <v>58</v>
       </c>
       <c r="N29" s="7">
-        <v>915273</v>
+        <v>64715</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,49 +6149,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>1923</v>
+        <v>74</v>
       </c>
       <c r="D30" s="7">
-        <v>2044567</v>
+        <v>85532</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>33</v>
+        <v>408</v>
       </c>
       <c r="H30" s="7">
-        <v>968</v>
+        <v>22</v>
       </c>
       <c r="I30" s="7">
-        <v>1053937</v>
+        <v>24368</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="M30" s="7">
-        <v>2891</v>
+        <v>96</v>
       </c>
       <c r="N30" s="7">
-        <v>3098505</v>
+        <v>109900</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,63 +6200,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>872</v>
+      </c>
+      <c r="D32" s="7">
+        <v>943722</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1878</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2025620</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2750</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2969342</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>414</v>
+      </c>
+      <c r="D33" s="7">
+        <v>438489</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H33" s="7">
+        <v>450</v>
+      </c>
+      <c r="I33" s="7">
+        <v>476784</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="M33" s="7">
+        <v>864</v>
+      </c>
+      <c r="N33" s="7">
+        <v>915273</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1923</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2044567</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="7">
+        <v>968</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1053937</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2891</v>
+      </c>
+      <c r="N34" s="7">
+        <v>3098505</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3209</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3426779</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3296</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3556341</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6505</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6983120</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>203</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5795,8 +6476,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA3D7DE-F6F2-47C0-9E7D-85E7B504059A}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC4F823-720D-4B2C-B93E-9ABBD11DCCDC}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5812,7 +6493,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5919,13 +6600,13 @@
         <v>75399</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="H4" s="7">
         <v>104</v>
@@ -5934,13 +6615,13 @@
         <v>103831</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="M4" s="7">
         <v>172</v>
@@ -5949,13 +6630,13 @@
         <v>179231</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +6651,13 @@
         <v>85733</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>347</v>
+        <v>448</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="H5" s="7">
         <v>123</v>
@@ -5985,13 +6666,13 @@
         <v>119429</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="M5" s="7">
         <v>204</v>
@@ -6000,13 +6681,13 @@
         <v>205162</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,13 +6702,13 @@
         <v>257236</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="H6" s="7">
         <v>177</v>
@@ -6036,13 +6717,13 @@
         <v>172494</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="M6" s="7">
         <v>420</v>
@@ -6051,13 +6732,13 @@
         <v>429730</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6806,13 @@
         <v>65305</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="H8" s="7">
         <v>112</v>
@@ -6140,13 +6821,13 @@
         <v>110982</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="M8" s="7">
         <v>173</v>
@@ -6155,13 +6836,13 @@
         <v>176286</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,13 +6857,13 @@
         <v>158604</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="H9" s="7">
         <v>234</v>
@@ -6191,13 +6872,13 @@
         <v>224212</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="M9" s="7">
         <v>386</v>
@@ -6206,13 +6887,13 @@
         <v>382817</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6227,13 +6908,13 @@
         <v>366587</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="H10" s="7">
         <v>232</v>
@@ -6242,13 +6923,13 @@
         <v>227351</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="M10" s="7">
         <v>586</v>
@@ -6257,13 +6938,13 @@
         <v>593939</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +7012,13 @@
         <v>71915</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="H12" s="7">
         <v>163</v>
@@ -6346,13 +7027,13 @@
         <v>162572</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="M12" s="7">
         <v>230</v>
@@ -6361,13 +7042,13 @@
         <v>234488</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +7063,13 @@
         <v>164939</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="H13" s="7">
         <v>251</v>
@@ -6397,13 +7078,13 @@
         <v>246829</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="M13" s="7">
         <v>410</v>
@@ -6412,13 +7093,13 @@
         <v>411768</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>453</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,13 +7114,13 @@
         <v>432242</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="H14" s="7">
         <v>250</v>
@@ -6448,10 +7129,10 @@
         <v>250979</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>142</v>
@@ -6463,13 +7144,13 @@
         <v>683221</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,13 +7218,13 @@
         <v>75170</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="H16" s="7">
         <v>144</v>
@@ -6552,13 +7233,13 @@
         <v>154684</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="M16" s="7">
         <v>207</v>
@@ -6567,13 +7248,13 @@
         <v>229854</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,13 +7269,13 @@
         <v>180216</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="H17" s="7">
         <v>213</v>
@@ -6603,13 +7284,13 @@
         <v>225939</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>473</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="M17" s="7">
         <v>380</v>
@@ -6618,13 +7299,13 @@
         <v>406154</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,13 +7320,13 @@
         <v>390662</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="H18" s="7">
         <v>243</v>
@@ -6657,10 +7338,10 @@
         <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>482</v>
+        <v>533</v>
       </c>
       <c r="M18" s="7">
         <v>595</v>
@@ -6669,13 +7350,13 @@
         <v>656915</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>483</v>
+        <v>534</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6743,13 +7424,13 @@
         <v>61323</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>486</v>
+        <v>405</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>487</v>
+        <v>537</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>488</v>
+        <v>538</v>
       </c>
       <c r="H20" s="7">
         <v>139</v>
@@ -6758,13 +7439,13 @@
         <v>160034</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>489</v>
+        <v>539</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>491</v>
+        <v>541</v>
       </c>
       <c r="M20" s="7">
         <v>193</v>
@@ -6773,13 +7454,13 @@
         <v>221357</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>492</v>
+        <v>542</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>493</v>
+        <v>543</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>494</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,10 +7478,10 @@
         <v>48</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>495</v>
+        <v>545</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>496</v>
+        <v>546</v>
       </c>
       <c r="H21" s="7">
         <v>178</v>
@@ -6809,13 +7490,13 @@
         <v>202618</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>498</v>
+        <v>548</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="M21" s="7">
         <v>293</v>
@@ -6824,13 +7505,13 @@
         <v>331508</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,13 +7526,13 @@
         <v>286740</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>501</v>
+        <v>551</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>502</v>
+        <v>552</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>503</v>
+        <v>553</v>
       </c>
       <c r="H22" s="7">
         <v>114</v>
@@ -6860,13 +7541,13 @@
         <v>131875</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>504</v>
+        <v>554</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>505</v>
+        <v>555</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>506</v>
+        <v>556</v>
       </c>
       <c r="M22" s="7">
         <v>368</v>
@@ -6875,13 +7556,13 @@
         <v>418615</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>507</v>
+        <v>557</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>508</v>
+        <v>558</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>509</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,49 +7624,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="D24" s="7">
-        <v>82395</v>
+        <v>48517</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>378</v>
+        <v>560</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>510</v>
+        <v>561</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>511</v>
+        <v>562</v>
       </c>
       <c r="H24" s="7">
-        <v>361</v>
+        <v>173</v>
       </c>
       <c r="I24" s="7">
-        <v>429828</v>
+        <v>182505</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>258</v>
+        <v>563</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>512</v>
+        <v>564</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="M24" s="7">
-        <v>447</v>
+        <v>220</v>
       </c>
       <c r="N24" s="7">
-        <v>512223</v>
+        <v>231022</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>514</v>
+        <v>566</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>515</v>
+        <v>567</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>516</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,49 +7675,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>257</v>
+        <v>105</v>
       </c>
       <c r="D25" s="7">
-        <v>235132</v>
+        <v>108329</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>517</v>
+        <v>569</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>518</v>
+        <v>570</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>519</v>
+        <v>571</v>
       </c>
       <c r="H25" s="7">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="I25" s="7">
-        <v>243926</v>
+        <v>127654</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>306</v>
+        <v>572</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>520</v>
+        <v>573</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>238</v>
+        <v>574</v>
       </c>
       <c r="M25" s="7">
-        <v>465</v>
+        <v>225</v>
       </c>
       <c r="N25" s="7">
-        <v>479058</v>
+        <v>235983</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>521</v>
+        <v>575</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>522</v>
+        <v>576</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>523</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,49 +7726,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="D26" s="7">
-        <v>273801</v>
+        <v>177484</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>524</v>
+        <v>578</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>525</v>
+        <v>121</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>526</v>
+        <v>579</v>
       </c>
       <c r="H26" s="7">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="I26" s="7">
-        <v>104177</v>
+        <v>67603</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>527</v>
+        <v>580</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>528</v>
+        <v>581</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>529</v>
+        <v>442</v>
       </c>
       <c r="M26" s="7">
-        <v>370</v>
+        <v>234</v>
       </c>
       <c r="N26" s="7">
-        <v>377979</v>
+        <v>245087</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>530</v>
+        <v>582</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>531</v>
+        <v>583</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>532</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7096,10 +7777,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -7111,10 +7792,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -7126,10 +7807,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -7143,55 +7824,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>399</v>
+        <v>39</v>
       </c>
       <c r="D28" s="7">
-        <v>431508</v>
+        <v>33878</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>533</v>
+        <v>585</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>534</v>
+        <v>586</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>372</v>
+        <v>587</v>
       </c>
       <c r="H28" s="7">
-        <v>1023</v>
+        <v>188</v>
       </c>
       <c r="I28" s="7">
-        <v>1121931</v>
+        <v>247323</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>535</v>
+        <v>588</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>536</v>
+        <v>589</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>537</v>
+        <v>590</v>
       </c>
       <c r="M28" s="7">
-        <v>1422</v>
+        <v>227</v>
       </c>
       <c r="N28" s="7">
-        <v>1553439</v>
+        <v>281201</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>538</v>
+        <v>591</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>539</v>
+        <v>592</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>540</v>
+        <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,49 +7881,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>931</v>
+        <v>152</v>
       </c>
       <c r="D29" s="7">
-        <v>953515</v>
+        <v>126803</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>541</v>
+        <v>257</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>542</v>
+        <v>594</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>543</v>
+        <v>595</v>
       </c>
       <c r="H29" s="7">
-        <v>1207</v>
+        <v>88</v>
       </c>
       <c r="I29" s="7">
-        <v>1262953</v>
+        <v>116272</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>544</v>
+        <v>596</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>545</v>
+        <v>597</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>546</v>
+        <v>598</v>
       </c>
       <c r="M29" s="7">
-        <v>2138</v>
+        <v>240</v>
       </c>
       <c r="N29" s="7">
-        <v>2216468</v>
+        <v>243075</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>547</v>
+        <v>599</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>549</v>
+        <v>601</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7251,49 +7932,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>1899</v>
+        <v>111</v>
       </c>
       <c r="D30" s="7">
-        <v>2007270</v>
+        <v>96317</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>550</v>
+        <v>602</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>551</v>
+        <v>603</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>552</v>
+        <v>604</v>
       </c>
       <c r="H30" s="7">
-        <v>1102</v>
+        <v>25</v>
       </c>
       <c r="I30" s="7">
-        <v>1153130</v>
+        <v>36575</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>553</v>
+        <v>605</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>554</v>
+        <v>606</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>103</v>
+        <v>405</v>
       </c>
       <c r="M30" s="7">
-        <v>3001</v>
+        <v>136</v>
       </c>
       <c r="N30" s="7">
-        <v>3160400</v>
+        <v>132892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>385</v>
+        <v>607</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>555</v>
+        <v>608</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>556</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7302,63 +7983,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>399</v>
+      </c>
+      <c r="D32" s="7">
+        <v>431508</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1023</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1121931</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1422</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1553439</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>931</v>
+      </c>
+      <c r="D33" s="7">
+        <v>953515</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1207</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1262953</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2138</v>
+      </c>
+      <c r="N33" s="7">
+        <v>2216468</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1899</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2007270</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1102</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1153130</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M34" s="7">
+        <v>3001</v>
+      </c>
+      <c r="N34" s="7">
+        <v>3160400</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3229</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3392292</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3332</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3538014</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6561</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6930306</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>203</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7371,8 +8259,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448F314C-5CC9-49E1-974F-43BF3ECBA519}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7D6EC0-3A7F-45C9-A397-FE0157AFA47F}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7388,7 +8276,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>557</v>
+        <v>633</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7492,46 +8380,46 @@
         <v>38</v>
       </c>
       <c r="D4" s="7">
-        <v>71476</v>
+        <v>71770</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>558</v>
+        <v>634</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>559</v>
+        <v>635</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>560</v>
+        <v>636</v>
       </c>
       <c r="H4" s="7">
         <v>64</v>
       </c>
       <c r="I4" s="7">
-        <v>107578</v>
+        <v>92925</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>561</v>
+        <v>637</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>562</v>
+        <v>638</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>563</v>
+        <v>639</v>
       </c>
       <c r="M4" s="7">
         <v>102</v>
       </c>
       <c r="N4" s="7">
-        <v>179055</v>
+        <v>164694</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>564</v>
+        <v>474</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>565</v>
+        <v>640</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>566</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7543,46 +8431,46 @@
         <v>51</v>
       </c>
       <c r="D5" s="7">
-        <v>108970</v>
+        <v>119559</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>568</v>
+        <v>643</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>569</v>
+        <v>644</v>
       </c>
       <c r="H5" s="7">
         <v>51</v>
       </c>
       <c r="I5" s="7">
-        <v>86913</v>
+        <v>73820</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>570</v>
+        <v>645</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>571</v>
+        <v>646</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>572</v>
+        <v>647</v>
       </c>
       <c r="M5" s="7">
         <v>102</v>
       </c>
       <c r="N5" s="7">
-        <v>195883</v>
+        <v>193379</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>573</v>
+        <v>648</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>575</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7594,46 +8482,46 @@
         <v>83</v>
       </c>
       <c r="D6" s="7">
-        <v>197233</v>
+        <v>208658</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>576</v>
+        <v>650</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>577</v>
+        <v>651</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>578</v>
+        <v>652</v>
       </c>
       <c r="H6" s="7">
         <v>92</v>
       </c>
       <c r="I6" s="7">
-        <v>160466</v>
+        <v>146455</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>579</v>
+        <v>632</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>580</v>
+        <v>653</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>581</v>
+        <v>654</v>
       </c>
       <c r="M6" s="7">
         <v>175</v>
       </c>
       <c r="N6" s="7">
-        <v>357699</v>
+        <v>355114</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>582</v>
+        <v>655</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>583</v>
+        <v>656</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7645,7 +8533,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -7660,7 +8548,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -7675,7 +8563,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -7698,46 +8586,46 @@
         <v>54</v>
       </c>
       <c r="D8" s="7">
-        <v>63553</v>
+        <v>61938</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>586</v>
+        <v>659</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>587</v>
+        <v>660</v>
       </c>
       <c r="H8" s="7">
         <v>107</v>
       </c>
       <c r="I8" s="7">
-        <v>95435</v>
+        <v>86785</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>661</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>588</v>
+        <v>662</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>589</v>
+        <v>663</v>
       </c>
       <c r="M8" s="7">
         <v>161</v>
       </c>
       <c r="N8" s="7">
-        <v>158988</v>
+        <v>148723</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>590</v>
+        <v>664</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>591</v>
+        <v>665</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>592</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,46 +8637,46 @@
         <v>65</v>
       </c>
       <c r="D9" s="7">
-        <v>92048</v>
+        <v>88563</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>593</v>
+        <v>667</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>594</v>
+        <v>668</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>595</v>
+        <v>669</v>
       </c>
       <c r="H9" s="7">
         <v>149</v>
       </c>
       <c r="I9" s="7">
-        <v>167427</v>
+        <v>151320</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>596</v>
+        <v>433</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>597</v>
+        <v>670</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>406</v>
+        <v>671</v>
       </c>
       <c r="M9" s="7">
         <v>214</v>
       </c>
       <c r="N9" s="7">
-        <v>259475</v>
+        <v>239883</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>599</v>
+        <v>673</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>600</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7800,46 +8688,46 @@
         <v>183</v>
       </c>
       <c r="D10" s="7">
-        <v>272795</v>
+        <v>273046</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>601</v>
+        <v>675</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>602</v>
+        <v>676</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>603</v>
+        <v>677</v>
       </c>
       <c r="H10" s="7">
         <v>203</v>
       </c>
       <c r="I10" s="7">
-        <v>234573</v>
+        <v>272491</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>604</v>
+        <v>678</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>605</v>
+        <v>679</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>606</v>
+        <v>680</v>
       </c>
       <c r="M10" s="7">
         <v>386</v>
       </c>
       <c r="N10" s="7">
-        <v>507368</v>
+        <v>545537</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>608</v>
+        <v>681</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>609</v>
+        <v>682</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7851,7 +8739,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -7866,7 +8754,7 @@
         <v>459</v>
       </c>
       <c r="I11" s="7">
-        <v>497435</v>
+        <v>510596</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -7881,7 +8769,7 @@
         <v>761</v>
       </c>
       <c r="N11" s="7">
-        <v>925831</v>
+        <v>934143</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -7904,46 +8792,46 @@
         <v>102</v>
       </c>
       <c r="D12" s="7">
-        <v>83795</v>
+        <v>80255</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>610</v>
+        <v>683</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>611</v>
+        <v>684</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>612</v>
+        <v>685</v>
       </c>
       <c r="H12" s="7">
         <v>231</v>
       </c>
       <c r="I12" s="7">
-        <v>139569</v>
+        <v>129430</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>613</v>
+        <v>686</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>614</v>
+        <v>687</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>615</v>
+        <v>688</v>
       </c>
       <c r="M12" s="7">
         <v>333</v>
       </c>
       <c r="N12" s="7">
-        <v>223364</v>
+        <v>209685</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>446</v>
+        <v>689</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>616</v>
+        <v>690</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>617</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7955,46 +8843,46 @@
         <v>115</v>
       </c>
       <c r="D13" s="7">
-        <v>121551</v>
+        <v>114856</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>691</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>618</v>
+        <v>692</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>619</v>
+        <v>693</v>
       </c>
       <c r="H13" s="7">
         <v>278</v>
       </c>
       <c r="I13" s="7">
-        <v>206494</v>
+        <v>190690</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>424</v>
+        <v>694</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="M13" s="7">
         <v>393</v>
       </c>
       <c r="N13" s="7">
-        <v>328046</v>
+        <v>305546</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>623</v>
+        <v>697</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>624</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8006,46 +8894,46 @@
         <v>328</v>
       </c>
       <c r="D14" s="7">
-        <v>351745</v>
+        <v>341063</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>625</v>
+        <v>699</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>627</v>
+        <v>701</v>
       </c>
       <c r="H14" s="7">
         <v>335</v>
       </c>
       <c r="I14" s="7">
-        <v>235720</v>
+        <v>220895</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>628</v>
+        <v>702</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>629</v>
+        <v>703</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>630</v>
+        <v>119</v>
       </c>
       <c r="M14" s="7">
         <v>663</v>
       </c>
       <c r="N14" s="7">
-        <v>587466</v>
+        <v>561958</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>633</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8057,7 +8945,7 @@
         <v>545</v>
       </c>
       <c r="D15" s="7">
-        <v>557092</v>
+        <v>536174</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -8072,7 +8960,7 @@
         <v>844</v>
       </c>
       <c r="I15" s="7">
-        <v>581783</v>
+        <v>541015</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -8087,7 +8975,7 @@
         <v>1389</v>
       </c>
       <c r="N15" s="7">
-        <v>1138876</v>
+        <v>1077188</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -8110,46 +8998,46 @@
         <v>118</v>
       </c>
       <c r="D16" s="7">
-        <v>97106</v>
+        <v>91066</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>634</v>
+        <v>705</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>635</v>
+        <v>706</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>636</v>
+        <v>707</v>
       </c>
       <c r="H16" s="7">
         <v>320</v>
       </c>
       <c r="I16" s="7">
-        <v>206775</v>
+        <v>214478</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>637</v>
+        <v>708</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>638</v>
+        <v>672</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>639</v>
+        <v>709</v>
       </c>
       <c r="M16" s="7">
         <v>438</v>
       </c>
       <c r="N16" s="7">
-        <v>303881</v>
+        <v>305544</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>640</v>
+        <v>445</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>641</v>
+        <v>710</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>642</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8161,46 +9049,46 @@
         <v>154</v>
       </c>
       <c r="D17" s="7">
-        <v>161665</v>
+        <v>150682</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>643</v>
+        <v>712</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>644</v>
+        <v>713</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>645</v>
+        <v>714</v>
       </c>
       <c r="H17" s="7">
         <v>364</v>
       </c>
       <c r="I17" s="7">
-        <v>244813</v>
+        <v>222826</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>646</v>
+        <v>715</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>647</v>
+        <v>716</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>648</v>
+        <v>717</v>
       </c>
       <c r="M17" s="7">
         <v>518</v>
       </c>
       <c r="N17" s="7">
-        <v>406478</v>
+        <v>373509</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>649</v>
+        <v>718</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>650</v>
+        <v>560</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>651</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8212,46 +9100,46 @@
         <v>389</v>
       </c>
       <c r="D18" s="7">
-        <v>460753</v>
+        <v>641750</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>652</v>
+        <v>720</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>653</v>
+        <v>721</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>654</v>
+        <v>722</v>
       </c>
       <c r="H18" s="7">
         <v>456</v>
       </c>
       <c r="I18" s="7">
-        <v>294962</v>
+        <v>274913</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>655</v>
+        <v>723</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>656</v>
+        <v>724</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>226</v>
+        <v>725</v>
       </c>
       <c r="M18" s="7">
         <v>845</v>
       </c>
       <c r="N18" s="7">
-        <v>755715</v>
+        <v>916664</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>657</v>
+        <v>726</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>658</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>659</v>
+        <v>727</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8263,7 +9151,7 @@
         <v>661</v>
       </c>
       <c r="D19" s="7">
-        <v>719524</v>
+        <v>883499</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -8278,7 +9166,7 @@
         <v>1140</v>
       </c>
       <c r="I19" s="7">
-        <v>746550</v>
+        <v>712218</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -8293,7 +9181,7 @@
         <v>1801</v>
       </c>
       <c r="N19" s="7">
-        <v>1466075</v>
+        <v>1595717</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -8316,46 +9204,46 @@
         <v>112</v>
       </c>
       <c r="D20" s="7">
-        <v>90507</v>
+        <v>84350</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>660</v>
+        <v>728</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>661</v>
+        <v>729</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="H20" s="7">
         <v>322</v>
       </c>
       <c r="I20" s="7">
-        <v>184020</v>
+        <v>169134</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>663</v>
+        <v>730</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>664</v>
+        <v>731</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>665</v>
+        <v>732</v>
       </c>
       <c r="M20" s="7">
         <v>434</v>
       </c>
       <c r="N20" s="7">
-        <v>274527</v>
+        <v>253484</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>666</v>
+        <v>733</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>667</v>
+        <v>734</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>668</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,46 +9255,46 @@
         <v>177</v>
       </c>
       <c r="D21" s="7">
-        <v>164962</v>
+        <v>152951</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>363</v>
+        <v>735</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>669</v>
+        <v>736</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>670</v>
+        <v>737</v>
       </c>
       <c r="H21" s="7">
         <v>339</v>
       </c>
       <c r="I21" s="7">
-        <v>203887</v>
+        <v>186066</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>671</v>
+        <v>738</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>672</v>
+        <v>739</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>673</v>
+        <v>740</v>
       </c>
       <c r="M21" s="7">
         <v>516</v>
       </c>
       <c r="N21" s="7">
-        <v>368849</v>
+        <v>339017</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>674</v>
+        <v>741</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>675</v>
+        <v>742</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>676</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8418,46 +9306,46 @@
         <v>373</v>
       </c>
       <c r="D22" s="7">
-        <v>343611</v>
+        <v>322903</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>677</v>
+        <v>743</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>678</v>
+        <v>744</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>679</v>
+        <v>159</v>
       </c>
       <c r="H22" s="7">
         <v>338</v>
       </c>
       <c r="I22" s="7">
-        <v>205028</v>
+        <v>189105</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>680</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>681</v>
+        <v>745</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>682</v>
+        <v>746</v>
       </c>
       <c r="M22" s="7">
         <v>711</v>
       </c>
       <c r="N22" s="7">
-        <v>548639</v>
+        <v>512008</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>683</v>
+        <v>747</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>684</v>
+        <v>748</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>685</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8469,7 +9357,7 @@
         <v>662</v>
       </c>
       <c r="D23" s="7">
-        <v>599080</v>
+        <v>560204</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -8484,7 +9372,7 @@
         <v>999</v>
       </c>
       <c r="I23" s="7">
-        <v>592934</v>
+        <v>544305</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -8499,7 +9387,7 @@
         <v>1661</v>
       </c>
       <c r="N23" s="7">
-        <v>1192014</v>
+        <v>1104509</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -8519,49 +9407,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="D24" s="7">
-        <v>120526</v>
+        <v>59674</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>750</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>686</v>
+        <v>751</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>687</v>
+        <v>752</v>
       </c>
       <c r="H24" s="7">
-        <v>801</v>
+        <v>345</v>
       </c>
       <c r="I24" s="7">
-        <v>413190</v>
+        <v>163495</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>688</v>
+        <v>753</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>689</v>
+        <v>754</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>690</v>
+        <v>755</v>
       </c>
       <c r="M24" s="7">
-        <v>982</v>
+        <v>439</v>
       </c>
       <c r="N24" s="7">
-        <v>533716</v>
+        <v>223168</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>691</v>
+        <v>756</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>692</v>
+        <v>674</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8570,49 +9458,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>321</v>
+        <v>149</v>
       </c>
       <c r="D25" s="7">
-        <v>216897</v>
+        <v>93566</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>693</v>
+        <v>757</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>694</v>
+        <v>758</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>695</v>
+        <v>759</v>
       </c>
       <c r="H25" s="7">
-        <v>602</v>
+        <v>272</v>
       </c>
       <c r="I25" s="7">
-        <v>330518</v>
+        <v>133940</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>522</v>
+        <v>218</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>696</v>
+        <v>760</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>697</v>
+        <v>761</v>
       </c>
       <c r="M25" s="7">
-        <v>923</v>
+        <v>421</v>
       </c>
       <c r="N25" s="7">
-        <v>547415</v>
+        <v>227505</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>698</v>
+        <v>762</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>700</v>
+        <v>764</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,49 +9509,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>525</v>
+        <v>326</v>
       </c>
       <c r="D26" s="7">
-        <v>359389</v>
+        <v>214050</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>631</v>
+        <v>765</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>701</v>
+        <v>766</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>702</v>
+        <v>767</v>
       </c>
       <c r="H26" s="7">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="I26" s="7">
-        <v>280015</v>
+        <v>310337</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>703</v>
+        <v>768</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>704</v>
+        <v>339</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>705</v>
+        <v>769</v>
       </c>
       <c r="M26" s="7">
-        <v>826</v>
+        <v>535</v>
       </c>
       <c r="N26" s="7">
-        <v>639405</v>
+        <v>524387</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>706</v>
+        <v>770</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>17</v>
+        <v>771</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>707</v>
+        <v>772</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,10 +9560,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D27" s="7">
-        <v>696812</v>
+        <v>367289</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -8687,10 +9575,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1704</v>
+        <v>826</v>
       </c>
       <c r="I27" s="7">
-        <v>1023723</v>
+        <v>607772</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -8702,10 +9590,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2731</v>
+        <v>1395</v>
       </c>
       <c r="N27" s="7">
-        <v>1720536</v>
+        <v>975061</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -8719,55 +9607,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>605</v>
+        <v>87</v>
       </c>
       <c r="D28" s="7">
-        <v>526964</v>
+        <v>52854</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>133</v>
+        <v>773</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>708</v>
+        <v>105</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>590</v>
+        <v>774</v>
       </c>
       <c r="H28" s="7">
-        <v>1845</v>
+        <v>456</v>
       </c>
       <c r="I28" s="7">
-        <v>1146567</v>
+        <v>213181</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>709</v>
+        <v>775</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>710</v>
+        <v>776</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>711</v>
+        <v>777</v>
       </c>
       <c r="M28" s="7">
-        <v>2450</v>
+        <v>543</v>
       </c>
       <c r="N28" s="7">
-        <v>1673530</v>
+        <v>266035</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>712</v>
+        <v>778</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>713</v>
+        <v>779</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>714</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8776,49 +9664,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>883</v>
+        <v>172</v>
       </c>
       <c r="D29" s="7">
-        <v>866093</v>
+        <v>107753</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>715</v>
+        <v>781</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>716</v>
+        <v>782</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>717</v>
+        <v>783</v>
       </c>
       <c r="H29" s="7">
-        <v>1783</v>
+        <v>330</v>
       </c>
       <c r="I29" s="7">
-        <v>1240052</v>
+        <v>163757</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>718</v>
+        <v>784</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>719</v>
+        <v>785</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>720</v>
+        <v>786</v>
       </c>
       <c r="M29" s="7">
-        <v>2666</v>
+        <v>502</v>
       </c>
       <c r="N29" s="7">
-        <v>2106145</v>
+        <v>271510</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>721</v>
+        <v>787</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>722</v>
+        <v>788</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>723</v>
+        <v>789</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8827,49 +9715,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>1881</v>
+        <v>199</v>
       </c>
       <c r="D30" s="7">
-        <v>1985527</v>
+        <v>122152</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>724</v>
+        <v>790</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>725</v>
+        <v>791</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>726</v>
+        <v>792</v>
       </c>
       <c r="H30" s="7">
-        <v>1725</v>
+        <v>92</v>
       </c>
       <c r="I30" s="7">
-        <v>1410764</v>
+        <v>46926</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>629</v>
+        <v>793</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>680</v>
+        <v>794</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>727</v>
+        <v>795</v>
       </c>
       <c r="M30" s="7">
-        <v>3606</v>
+        <v>291</v>
       </c>
       <c r="N30" s="7">
-        <v>3396291</v>
+        <v>169078</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>728</v>
+        <v>796</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>729</v>
+        <v>797</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>730</v>
+        <v>798</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,63 +9766,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>458</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>878</v>
+      </c>
+      <c r="I31" s="7">
+        <v>423863</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1336</v>
+      </c>
+      <c r="N31" s="7">
+        <v>706622</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>605</v>
+      </c>
+      <c r="D32" s="7">
+        <v>501907</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1845</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1069426</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2450</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1571333</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>883</v>
+      </c>
+      <c r="D33" s="7">
+        <v>827929</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1783</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1122419</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2666</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1950349</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1881</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2123623</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1725</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1461122</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="M34" s="7">
+        <v>3606</v>
+      </c>
+      <c r="N34" s="7">
+        <v>3584745</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3369</v>
       </c>
-      <c r="D31" s="7">
-        <v>3378584</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3453459</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5353</v>
       </c>
-      <c r="I31" s="7">
-        <v>3797383</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3652968</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8722</v>
       </c>
-      <c r="N31" s="7">
-        <v>7175966</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>203</v>
+      <c r="N35" s="7">
+        <v>7106427</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
